--- a/ORGANON_yield_analysis/Douglas-fir Yield Tables and Permanent Plots.xlsx
+++ b/ORGANON_yield_analysis/Douglas-fir Yield Tables and Permanent Plots.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6036" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6036"/>
   </bookViews>
   <sheets>
     <sheet name="YieldTables" sheetId="8" r:id="rId1"/>
-    <sheet name="PermanentPlots" sheetId="5" r:id="rId2"/>
-    <sheet name="Citations" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="PermanentPlots" sheetId="5" r:id="rId3"/>
+    <sheet name="Citations" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="59">
   <si>
     <t>Source</t>
   </si>
@@ -174,6 +175,36 @@
   <si>
     <t>2,052 sample plots in stands ranging from 20 to 160 years old, scribner boardfoot volume in 32' logs for trees with DBH &gt;=15.6" to a 12" top, and 2-foot stump</t>
   </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>SMC_2016</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Zone 5</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Yield Sets</t>
+  </si>
+  <si>
+    <t>All Trees</t>
+  </si>
+  <si>
+    <t>Model Set</t>
+  </si>
+  <si>
+    <t>Type I, II</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +214,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +223,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -220,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -228,6 +267,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,17 +589,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M488"/>
+  <dimension ref="A1:M517"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I355" sqref="I355"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="8.88671875" style="3"/>
     <col min="13" max="13" width="8.88671875" style="2"/>
   </cols>
@@ -626,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">IF(ISBLANK(B3),A3,A3&amp;"_"&amp;B3)</f>
+        <f t="shared" ref="C3:C46" si="0">IF(ISBLANK(B3),A3,A3&amp;"_"&amp;B3)</f>
         <v>Schumacher_1930</v>
       </c>
       <c r="E3" s="3">
@@ -2116,8 +2162,8 @@
         <v>19</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f>IF(ISBLANK(B47),A47,A47&amp;"_"&amp;B47)&amp;IF(ISBLANK(D47),"_SI50_"&amp;E47,"_SI100_"&amp;D47)</f>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E47" s="3">
         <v>120</v>
@@ -2150,8 +2196,8 @@
         <v>19</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" ref="C48:C111" si="2">IF(ISBLANK(B48),A48,A48&amp;"_"&amp;B48)&amp;IF(ISBLANK(D48),"_SI50_"&amp;E48,"_SI100_"&amp;D48)</f>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E48" s="3">
         <v>120</v>
@@ -2184,8 +2230,8 @@
         <v>19</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E49" s="3">
         <v>120</v>
@@ -2218,8 +2264,8 @@
         <v>19</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E50" s="3">
         <v>120</v>
@@ -2252,8 +2298,8 @@
         <v>19</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E51" s="3">
         <v>120</v>
@@ -2286,8 +2332,8 @@
         <v>19</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E52" s="3">
         <v>120</v>
@@ -2320,8 +2366,8 @@
         <v>19</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E53" s="3">
         <v>120</v>
@@ -2354,8 +2400,8 @@
         <v>19</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E54" s="3">
         <v>120</v>
@@ -2388,8 +2434,8 @@
         <v>19</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E55" s="3">
         <v>120</v>
@@ -2422,8 +2468,8 @@
         <v>19</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E56" s="3">
         <v>120</v>
@@ -2456,8 +2502,8 @@
         <v>19</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_120</v>
       </c>
       <c r="E57" s="3">
         <v>120</v>
@@ -2490,8 +2536,8 @@
         <v>19</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E58" s="3">
         <v>140</v>
@@ -2524,8 +2570,8 @@
         <v>19</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E59" s="3">
         <v>140</v>
@@ -2558,8 +2604,8 @@
         <v>19</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E60" s="3">
         <v>140</v>
@@ -2592,8 +2638,8 @@
         <v>19</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E61" s="3">
         <v>140</v>
@@ -2626,8 +2672,8 @@
         <v>19</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E62" s="3">
         <v>140</v>
@@ -2660,8 +2706,8 @@
         <v>19</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E63" s="3">
         <v>140</v>
@@ -2694,8 +2740,8 @@
         <v>19</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E64" s="3">
         <v>140</v>
@@ -2728,8 +2774,8 @@
         <v>19</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E65" s="3">
         <v>140</v>
@@ -2762,8 +2808,8 @@
         <v>19</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E66" s="3">
         <v>140</v>
@@ -2783,8 +2829,8 @@
         <v>19</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="2">IF(ISBLANK(B67),A67,A67&amp;"_"&amp;B67)</f>
-        <v>Schumacher_1930</v>
+        <f t="shared" si="2"/>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E67" s="3">
         <v>140</v>
@@ -2805,7 +2851,7 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" si="2"/>
-        <v>Schumacher_1930</v>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E68" s="3">
         <v>140</v>
@@ -2826,7 +2872,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" si="2"/>
-        <v>Schumacher_1930</v>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E69" s="3">
         <v>140</v>
@@ -2847,7 +2893,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="2"/>
-        <v>Schumacher_1930</v>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E70" s="3">
         <v>140</v>
@@ -2868,7 +2914,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="2"/>
-        <v>Schumacher_1930</v>
+        <v>Schumacher_1930_SI50_140</v>
       </c>
       <c r="E71" s="3">
         <v>140</v>
@@ -2892,7 +2938,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_70</v>
       </c>
       <c r="E72" s="3">
         <v>70</v>
@@ -2929,7 +2975,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_70</v>
       </c>
       <c r="E73" s="3">
         <v>70</v>
@@ -2966,7 +3012,7 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_70</v>
       </c>
       <c r="E74" s="3">
         <v>70</v>
@@ -3003,7 +3049,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_70</v>
       </c>
       <c r="E75" s="3">
         <v>70</v>
@@ -3040,7 +3086,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_70</v>
       </c>
       <c r="E76" s="3">
         <v>70</v>
@@ -3077,7 +3123,7 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_70</v>
       </c>
       <c r="E77" s="3">
         <v>70</v>
@@ -3114,7 +3160,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_70</v>
       </c>
       <c r="E78" s="3">
         <v>70</v>
@@ -3151,7 +3197,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_70</v>
       </c>
       <c r="E79" s="3">
         <v>70</v>
@@ -3188,7 +3234,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_80</v>
       </c>
       <c r="E80" s="3">
         <v>80</v>
@@ -3225,7 +3271,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_80</v>
       </c>
       <c r="E81" s="3">
         <v>80</v>
@@ -3262,7 +3308,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_80</v>
       </c>
       <c r="E82" s="3">
         <v>80</v>
@@ -3299,7 +3345,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_80</v>
       </c>
       <c r="E83" s="3">
         <v>80</v>
@@ -3336,7 +3382,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_80</v>
       </c>
       <c r="E84" s="3">
         <v>80</v>
@@ -3373,7 +3419,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_80</v>
       </c>
       <c r="E85" s="3">
         <v>80</v>
@@ -3410,7 +3456,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_80</v>
       </c>
       <c r="E86" s="3">
         <v>80</v>
@@ -3447,7 +3493,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_80</v>
       </c>
       <c r="E87" s="3">
         <v>80</v>
@@ -3484,7 +3530,7 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_90</v>
       </c>
       <c r="E88" s="3">
         <v>90</v>
@@ -3521,7 +3567,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_90</v>
       </c>
       <c r="E89" s="3">
         <v>90</v>
@@ -3558,7 +3604,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_90</v>
       </c>
       <c r="E90" s="3">
         <v>90</v>
@@ -3595,7 +3641,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_90</v>
       </c>
       <c r="E91" s="3">
         <v>90</v>
@@ -3632,7 +3678,7 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_90</v>
       </c>
       <c r="E92" s="3">
         <v>90</v>
@@ -3669,7 +3715,7 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_90</v>
       </c>
       <c r="E93" s="3">
         <v>90</v>
@@ -3706,7 +3752,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_90</v>
       </c>
       <c r="E94" s="3">
         <v>90</v>
@@ -3743,7 +3789,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_90</v>
       </c>
       <c r="E95" s="3">
         <v>90</v>
@@ -3780,7 +3826,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_100</v>
       </c>
       <c r="E96" s="3">
         <v>100</v>
@@ -3817,7 +3863,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_100</v>
       </c>
       <c r="E97" s="3">
         <v>100</v>
@@ -3854,7 +3900,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_100</v>
       </c>
       <c r="E98" s="3">
         <v>100</v>
@@ -3891,7 +3937,7 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_100</v>
       </c>
       <c r="E99" s="3">
         <v>100</v>
@@ -3928,7 +3974,7 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_100</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -3965,7 +4011,7 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_100</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -4002,7 +4048,7 @@
       </c>
       <c r="C102" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_100</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
@@ -4039,7 +4085,7 @@
       </c>
       <c r="C103" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_100</v>
       </c>
       <c r="E103" s="3">
         <v>100</v>
@@ -4076,7 +4122,7 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_110</v>
       </c>
       <c r="E104" s="3">
         <v>110</v>
@@ -4113,7 +4159,7 @@
       </c>
       <c r="C105" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_110</v>
       </c>
       <c r="E105" s="3">
         <v>110</v>
@@ -4150,7 +4196,7 @@
       </c>
       <c r="C106" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_110</v>
       </c>
       <c r="E106" s="3">
         <v>110</v>
@@ -4187,7 +4233,7 @@
       </c>
       <c r="C107" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_110</v>
       </c>
       <c r="E107" s="3">
         <v>110</v>
@@ -4224,7 +4270,7 @@
       </c>
       <c r="C108" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_110</v>
       </c>
       <c r="E108" s="3">
         <v>110</v>
@@ -4261,7 +4307,7 @@
       </c>
       <c r="C109" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_110</v>
       </c>
       <c r="E109" s="3">
         <v>110</v>
@@ -4298,7 +4344,7 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_110</v>
       </c>
       <c r="E110" s="3">
         <v>110</v>
@@ -4335,7 +4381,7 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_110</v>
       </c>
       <c r="E111" s="3">
         <v>110</v>
@@ -4371,8 +4417,8 @@
         <v>36</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" ref="C112:C175" si="4">IF(ISBLANK(B112),A112,A112&amp;"_"&amp;B112)&amp;IF(ISBLANK(D112),"_SI50_"&amp;E112,"_SI100_"&amp;D112)</f>
+        <v>Chambers_1983_planted_SI50_120</v>
       </c>
       <c r="E112" s="3">
         <v>120</v>
@@ -4408,8 +4454,8 @@
         <v>36</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_120</v>
       </c>
       <c r="E113" s="3">
         <v>120</v>
@@ -4445,8 +4491,8 @@
         <v>36</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_120</v>
       </c>
       <c r="E114" s="3">
         <v>120</v>
@@ -4482,8 +4528,8 @@
         <v>36</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_120</v>
       </c>
       <c r="E115" s="3">
         <v>120</v>
@@ -4519,8 +4565,8 @@
         <v>36</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_120</v>
       </c>
       <c r="E116" s="3">
         <v>120</v>
@@ -4556,8 +4602,8 @@
         <v>36</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_120</v>
       </c>
       <c r="E117" s="3">
         <v>120</v>
@@ -4593,8 +4639,8 @@
         <v>36</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_120</v>
       </c>
       <c r="E118" s="3">
         <v>120</v>
@@ -4630,8 +4676,8 @@
         <v>36</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_120</v>
       </c>
       <c r="E119" s="3">
         <v>120</v>
@@ -4667,8 +4713,8 @@
         <v>36</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_130</v>
       </c>
       <c r="E120" s="3">
         <v>130</v>
@@ -4704,8 +4750,8 @@
         <v>36</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_130</v>
       </c>
       <c r="E121" s="3">
         <v>130</v>
@@ -4741,8 +4787,8 @@
         <v>36</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_130</v>
       </c>
       <c r="E122" s="3">
         <v>130</v>
@@ -4778,8 +4824,8 @@
         <v>36</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_130</v>
       </c>
       <c r="E123" s="3">
         <v>130</v>
@@ -4815,8 +4861,8 @@
         <v>36</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_130</v>
       </c>
       <c r="E124" s="3">
         <v>130</v>
@@ -4852,8 +4898,8 @@
         <v>36</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_130</v>
       </c>
       <c r="E125" s="3">
         <v>130</v>
@@ -4889,8 +4935,8 @@
         <v>36</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_130</v>
       </c>
       <c r="E126" s="3">
         <v>130</v>
@@ -4926,8 +4972,8 @@
         <v>36</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_130</v>
       </c>
       <c r="E127" s="3">
         <v>130</v>
@@ -4963,8 +5009,8 @@
         <v>36</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_140</v>
       </c>
       <c r="E128" s="3">
         <v>140</v>
@@ -5000,8 +5046,8 @@
         <v>36</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_140</v>
       </c>
       <c r="E129" s="3">
         <v>140</v>
@@ -5037,8 +5083,8 @@
         <v>36</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="2"/>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_140</v>
       </c>
       <c r="E130" s="3">
         <v>140</v>
@@ -5074,8 +5120,8 @@
         <v>36</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C194" si="4">IF(ISBLANK(B131),A131,A131&amp;"_"&amp;B131)</f>
-        <v>Chambers_1983_planted</v>
+        <f t="shared" si="4"/>
+        <v>Chambers_1983_planted_SI50_140</v>
       </c>
       <c r="E131" s="3">
         <v>140</v>
@@ -5112,7 +5158,7 @@
       </c>
       <c r="C132" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_140</v>
       </c>
       <c r="E132" s="3">
         <v>140</v>
@@ -5149,7 +5195,7 @@
       </c>
       <c r="C133" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_140</v>
       </c>
       <c r="E133" s="3">
         <v>140</v>
@@ -5186,7 +5232,7 @@
       </c>
       <c r="C134" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_140</v>
       </c>
       <c r="E134" s="3">
         <v>140</v>
@@ -5223,7 +5269,7 @@
       </c>
       <c r="C135" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_140</v>
       </c>
       <c r="E135" s="3">
         <v>140</v>
@@ -5260,7 +5306,7 @@
       </c>
       <c r="C136" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_150</v>
       </c>
       <c r="E136" s="3">
         <v>150</v>
@@ -5297,7 +5343,7 @@
       </c>
       <c r="C137" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_150</v>
       </c>
       <c r="E137" s="3">
         <v>150</v>
@@ -5334,7 +5380,7 @@
       </c>
       <c r="C138" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_150</v>
       </c>
       <c r="E138" s="3">
         <v>150</v>
@@ -5371,7 +5417,7 @@
       </c>
       <c r="C139" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_150</v>
       </c>
       <c r="E139" s="3">
         <v>150</v>
@@ -5408,7 +5454,7 @@
       </c>
       <c r="C140" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_150</v>
       </c>
       <c r="E140" s="3">
         <v>150</v>
@@ -5445,7 +5491,7 @@
       </c>
       <c r="C141" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_150</v>
       </c>
       <c r="E141" s="3">
         <v>150</v>
@@ -5482,7 +5528,7 @@
       </c>
       <c r="C142" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_150</v>
       </c>
       <c r="E142" s="3">
         <v>150</v>
@@ -5519,7 +5565,7 @@
       </c>
       <c r="C143" t="str">
         <f t="shared" si="4"/>
-        <v>Chambers_1983_planted</v>
+        <v>Chambers_1983_planted_SI50_150</v>
       </c>
       <c r="E143" s="3">
         <v>150</v>
@@ -5553,7 +5599,7 @@
       </c>
       <c r="C144" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D144" s="3">
         <v>80</v>
@@ -5587,7 +5633,7 @@
       </c>
       <c r="C145" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D145" s="3">
         <v>80</v>
@@ -5624,7 +5670,7 @@
       </c>
       <c r="C146" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D146" s="3">
         <v>80</v>
@@ -5661,7 +5707,7 @@
       </c>
       <c r="C147" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D147" s="3">
         <v>80</v>
@@ -5698,7 +5744,7 @@
       </c>
       <c r="C148" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D148" s="3">
         <v>80</v>
@@ -5735,7 +5781,7 @@
       </c>
       <c r="C149" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D149" s="3">
         <v>80</v>
@@ -5772,7 +5818,7 @@
       </c>
       <c r="C150" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D150" s="3">
         <v>80</v>
@@ -5809,7 +5855,7 @@
       </c>
       <c r="C151" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D151" s="3">
         <v>80</v>
@@ -5846,7 +5892,7 @@
       </c>
       <c r="C152" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D152" s="3">
         <v>80</v>
@@ -5883,7 +5929,7 @@
       </c>
       <c r="C153" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D153" s="3">
         <v>80</v>
@@ -5920,7 +5966,7 @@
       </c>
       <c r="C154" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D154" s="3">
         <v>80</v>
@@ -5957,7 +6003,7 @@
       </c>
       <c r="C155" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D155" s="3">
         <v>80</v>
@@ -5994,7 +6040,7 @@
       </c>
       <c r="C156" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D156" s="3">
         <v>80</v>
@@ -6031,7 +6077,7 @@
       </c>
       <c r="C157" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D157" s="3">
         <v>80</v>
@@ -6068,7 +6114,7 @@
       </c>
       <c r="C158" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_80</v>
       </c>
       <c r="D158" s="3">
         <v>80</v>
@@ -6105,7 +6151,7 @@
       </c>
       <c r="C159" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D159" s="3">
         <v>90</v>
@@ -6139,7 +6185,7 @@
       </c>
       <c r="C160" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D160" s="3">
         <v>90</v>
@@ -6176,7 +6222,7 @@
       </c>
       <c r="C161" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D161" s="3">
         <v>90</v>
@@ -6213,7 +6259,7 @@
       </c>
       <c r="C162" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D162" s="3">
         <v>90</v>
@@ -6250,7 +6296,7 @@
       </c>
       <c r="C163" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D163" s="3">
         <v>90</v>
@@ -6287,7 +6333,7 @@
       </c>
       <c r="C164" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D164" s="3">
         <v>90</v>
@@ -6324,7 +6370,7 @@
       </c>
       <c r="C165" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D165" s="3">
         <v>90</v>
@@ -6361,7 +6407,7 @@
       </c>
       <c r="C166" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D166" s="3">
         <v>90</v>
@@ -6398,7 +6444,7 @@
       </c>
       <c r="C167" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D167" s="3">
         <v>90</v>
@@ -6435,7 +6481,7 @@
       </c>
       <c r="C168" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D168" s="3">
         <v>90</v>
@@ -6472,7 +6518,7 @@
       </c>
       <c r="C169" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D169" s="3">
         <v>90</v>
@@ -6509,7 +6555,7 @@
       </c>
       <c r="C170" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D170" s="3">
         <v>90</v>
@@ -6546,7 +6592,7 @@
       </c>
       <c r="C171" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D171" s="3">
         <v>90</v>
@@ -6583,7 +6629,7 @@
       </c>
       <c r="C172" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D172" s="3">
         <v>90</v>
@@ -6620,7 +6666,7 @@
       </c>
       <c r="C173" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_90</v>
       </c>
       <c r="D173" s="3">
         <v>90</v>
@@ -6657,7 +6703,7 @@
       </c>
       <c r="C174" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D174" s="3">
         <v>100</v>
@@ -6691,7 +6737,7 @@
       </c>
       <c r="C175" t="str">
         <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D175" s="3">
         <v>100</v>
@@ -6727,8 +6773,8 @@
         <v>21</v>
       </c>
       <c r="C176" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" ref="C176:C239" si="7">IF(ISBLANK(B176),A176,A176&amp;"_"&amp;B176)&amp;IF(ISBLANK(D176),"_SI50_"&amp;E176,"_SI100_"&amp;D176)</f>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D176" s="3">
         <v>100</v>
@@ -6764,8 +6810,8 @@
         <v>21</v>
       </c>
       <c r="C177" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D177" s="3">
         <v>100</v>
@@ -6801,8 +6847,8 @@
         <v>21</v>
       </c>
       <c r="C178" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D178" s="3">
         <v>100</v>
@@ -6838,8 +6884,8 @@
         <v>21</v>
       </c>
       <c r="C179" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D179" s="3">
         <v>100</v>
@@ -6875,8 +6921,8 @@
         <v>21</v>
       </c>
       <c r="C180" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D180" s="3">
         <v>100</v>
@@ -6912,8 +6958,8 @@
         <v>21</v>
       </c>
       <c r="C181" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D181" s="3">
         <v>100</v>
@@ -6949,8 +6995,8 @@
         <v>21</v>
       </c>
       <c r="C182" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D182" s="3">
         <v>100</v>
@@ -6986,8 +7032,8 @@
         <v>21</v>
       </c>
       <c r="C183" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D183" s="3">
         <v>100</v>
@@ -7023,8 +7069,8 @@
         <v>21</v>
       </c>
       <c r="C184" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D184" s="3">
         <v>100</v>
@@ -7060,8 +7106,8 @@
         <v>21</v>
       </c>
       <c r="C185" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D185" s="3">
         <v>100</v>
@@ -7097,8 +7143,8 @@
         <v>21</v>
       </c>
       <c r="C186" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D186" s="3">
         <v>100</v>
@@ -7134,8 +7180,8 @@
         <v>21</v>
       </c>
       <c r="C187" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D187" s="3">
         <v>100</v>
@@ -7171,8 +7217,8 @@
         <v>21</v>
       </c>
       <c r="C188" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_100</v>
       </c>
       <c r="D188" s="3">
         <v>100</v>
@@ -7208,8 +7254,8 @@
         <v>21</v>
       </c>
       <c r="C189" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D189" s="3">
         <v>110</v>
@@ -7242,8 +7288,8 @@
         <v>21</v>
       </c>
       <c r="C190" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D190" s="3">
         <v>110</v>
@@ -7279,8 +7325,8 @@
         <v>21</v>
       </c>
       <c r="C191" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D191" s="3">
         <v>110</v>
@@ -7316,8 +7362,8 @@
         <v>21</v>
       </c>
       <c r="C192" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D192" s="3">
         <v>110</v>
@@ -7353,8 +7399,8 @@
         <v>21</v>
       </c>
       <c r="C193" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D193" s="3">
         <v>110</v>
@@ -7390,8 +7436,8 @@
         <v>21</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" si="4"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D194" s="3">
         <v>110</v>
@@ -7427,8 +7473,8 @@
         <v>21</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C258" si="7">IF(ISBLANK(B195),A195,A195&amp;"_"&amp;B195)</f>
-        <v>McArdle_1961</v>
+        <f t="shared" si="7"/>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D195" s="3">
         <v>110</v>
@@ -7465,7 +7511,7 @@
       </c>
       <c r="C196" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D196" s="3">
         <v>110</v>
@@ -7502,7 +7548,7 @@
       </c>
       <c r="C197" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D197" s="3">
         <v>110</v>
@@ -7539,7 +7585,7 @@
       </c>
       <c r="C198" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D198" s="3">
         <v>110</v>
@@ -7576,7 +7622,7 @@
       </c>
       <c r="C199" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D199" s="3">
         <v>110</v>
@@ -7613,7 +7659,7 @@
       </c>
       <c r="C200" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D200" s="3">
         <v>110</v>
@@ -7650,7 +7696,7 @@
       </c>
       <c r="C201" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D201" s="3">
         <v>110</v>
@@ -7687,7 +7733,7 @@
       </c>
       <c r="C202" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D202" s="3">
         <v>110</v>
@@ -7724,7 +7770,7 @@
       </c>
       <c r="C203" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_110</v>
       </c>
       <c r="D203" s="3">
         <v>110</v>
@@ -7761,7 +7807,7 @@
       </c>
       <c r="C204" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D204" s="3">
         <v>120</v>
@@ -7795,7 +7841,7 @@
       </c>
       <c r="C205" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D205" s="3">
         <v>120</v>
@@ -7832,7 +7878,7 @@
       </c>
       <c r="C206" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D206" s="3">
         <v>120</v>
@@ -7869,7 +7915,7 @@
       </c>
       <c r="C207" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D207" s="3">
         <v>120</v>
@@ -7906,7 +7952,7 @@
       </c>
       <c r="C208" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D208" s="3">
         <v>120</v>
@@ -7943,7 +7989,7 @@
       </c>
       <c r="C209" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D209" s="3">
         <v>120</v>
@@ -7980,7 +8026,7 @@
       </c>
       <c r="C210" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D210" s="3">
         <v>120</v>
@@ -8017,7 +8063,7 @@
       </c>
       <c r="C211" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D211" s="3">
         <v>120</v>
@@ -8054,7 +8100,7 @@
       </c>
       <c r="C212" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D212" s="3">
         <v>120</v>
@@ -8091,7 +8137,7 @@
       </c>
       <c r="C213" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D213" s="3">
         <v>120</v>
@@ -8128,7 +8174,7 @@
       </c>
       <c r="C214" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D214" s="3">
         <v>120</v>
@@ -8165,7 +8211,7 @@
       </c>
       <c r="C215" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D215" s="3">
         <v>120</v>
@@ -8202,7 +8248,7 @@
       </c>
       <c r="C216" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D216" s="3">
         <v>120</v>
@@ -8239,7 +8285,7 @@
       </c>
       <c r="C217" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D217" s="3">
         <v>120</v>
@@ -8276,7 +8322,7 @@
       </c>
       <c r="C218" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_120</v>
       </c>
       <c r="D218" s="3">
         <v>120</v>
@@ -8313,7 +8359,7 @@
       </c>
       <c r="C219" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D219" s="3">
         <v>130</v>
@@ -8347,7 +8393,7 @@
       </c>
       <c r="C220" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D220" s="3">
         <v>130</v>
@@ -8384,7 +8430,7 @@
       </c>
       <c r="C221" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D221" s="3">
         <v>130</v>
@@ -8421,7 +8467,7 @@
       </c>
       <c r="C222" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D222" s="3">
         <v>130</v>
@@ -8458,7 +8504,7 @@
       </c>
       <c r="C223" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D223" s="3">
         <v>130</v>
@@ -8495,7 +8541,7 @@
       </c>
       <c r="C224" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D224" s="3">
         <v>130</v>
@@ -8532,7 +8578,7 @@
       </c>
       <c r="C225" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D225" s="3">
         <v>130</v>
@@ -8569,7 +8615,7 @@
       </c>
       <c r="C226" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D226" s="3">
         <v>130</v>
@@ -8606,7 +8652,7 @@
       </c>
       <c r="C227" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D227" s="3">
         <v>130</v>
@@ -8643,7 +8689,7 @@
       </c>
       <c r="C228" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D228" s="3">
         <v>130</v>
@@ -8680,7 +8726,7 @@
       </c>
       <c r="C229" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D229" s="3">
         <v>130</v>
@@ -8717,7 +8763,7 @@
       </c>
       <c r="C230" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D230" s="3">
         <v>130</v>
@@ -8754,7 +8800,7 @@
       </c>
       <c r="C231" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D231" s="3">
         <v>130</v>
@@ -8791,7 +8837,7 @@
       </c>
       <c r="C232" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D232" s="3">
         <v>130</v>
@@ -8828,7 +8874,7 @@
       </c>
       <c r="C233" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_130</v>
       </c>
       <c r="D233" s="3">
         <v>130</v>
@@ -8865,7 +8911,7 @@
       </c>
       <c r="C234" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D234" s="3">
         <v>140</v>
@@ -8899,7 +8945,7 @@
       </c>
       <c r="C235" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D235" s="3">
         <v>140</v>
@@ -8936,7 +8982,7 @@
       </c>
       <c r="C236" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D236" s="3">
         <v>140</v>
@@ -8973,7 +9019,7 @@
       </c>
       <c r="C237" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D237" s="3">
         <v>140</v>
@@ -9010,7 +9056,7 @@
       </c>
       <c r="C238" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D238" s="3">
         <v>140</v>
@@ -9047,7 +9093,7 @@
       </c>
       <c r="C239" t="str">
         <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D239" s="3">
         <v>140</v>
@@ -9083,8 +9129,8 @@
         <v>21</v>
       </c>
       <c r="C240" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" ref="C240:C303" si="9">IF(ISBLANK(B240),A240,A240&amp;"_"&amp;B240)&amp;IF(ISBLANK(D240),"_SI50_"&amp;E240,"_SI100_"&amp;D240)</f>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D240" s="3">
         <v>140</v>
@@ -9120,8 +9166,8 @@
         <v>21</v>
       </c>
       <c r="C241" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D241" s="3">
         <v>140</v>
@@ -9157,8 +9203,8 @@
         <v>21</v>
       </c>
       <c r="C242" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D242" s="3">
         <v>140</v>
@@ -9194,8 +9240,8 @@
         <v>21</v>
       </c>
       <c r="C243" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D243" s="3">
         <v>140</v>
@@ -9231,8 +9277,8 @@
         <v>21</v>
       </c>
       <c r="C244" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D244" s="3">
         <v>140</v>
@@ -9268,8 +9314,8 @@
         <v>21</v>
       </c>
       <c r="C245" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D245" s="3">
         <v>140</v>
@@ -9305,8 +9351,8 @@
         <v>21</v>
       </c>
       <c r="C246" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D246" s="3">
         <v>140</v>
@@ -9342,8 +9388,8 @@
         <v>21</v>
       </c>
       <c r="C247" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D247" s="3">
         <v>140</v>
@@ -9379,8 +9425,8 @@
         <v>21</v>
       </c>
       <c r="C248" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_140</v>
       </c>
       <c r="D248" s="3">
         <v>140</v>
@@ -9416,8 +9462,8 @@
         <v>21</v>
       </c>
       <c r="C249" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D249" s="3">
         <v>150</v>
@@ -9450,8 +9496,8 @@
         <v>21</v>
       </c>
       <c r="C250" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D250" s="3">
         <v>150</v>
@@ -9487,8 +9533,8 @@
         <v>21</v>
       </c>
       <c r="C251" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D251" s="3">
         <v>150</v>
@@ -9524,8 +9570,8 @@
         <v>21</v>
       </c>
       <c r="C252" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D252" s="3">
         <v>150</v>
@@ -9561,8 +9607,8 @@
         <v>21</v>
       </c>
       <c r="C253" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D253" s="3">
         <v>150</v>
@@ -9598,8 +9644,8 @@
         <v>21</v>
       </c>
       <c r="C254" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D254" s="3">
         <v>150</v>
@@ -9635,8 +9681,8 @@
         <v>21</v>
       </c>
       <c r="C255" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D255" s="3">
         <v>150</v>
@@ -9672,8 +9718,8 @@
         <v>21</v>
       </c>
       <c r="C256" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D256" s="3">
         <v>150</v>
@@ -9709,8 +9755,8 @@
         <v>21</v>
       </c>
       <c r="C257" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D257" s="3">
         <v>150</v>
@@ -9746,8 +9792,8 @@
         <v>21</v>
       </c>
       <c r="C258" t="str">
-        <f t="shared" si="7"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D258" s="3">
         <v>150</v>
@@ -9783,8 +9829,8 @@
         <v>21</v>
       </c>
       <c r="C259" t="str">
-        <f t="shared" ref="C259:C322" si="9">IF(ISBLANK(B259),A259,A259&amp;"_"&amp;B259)</f>
-        <v>McArdle_1961</v>
+        <f t="shared" si="9"/>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D259" s="3">
         <v>150</v>
@@ -9821,7 +9867,7 @@
       </c>
       <c r="C260" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D260" s="3">
         <v>150</v>
@@ -9858,7 +9904,7 @@
       </c>
       <c r="C261" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D261" s="3">
         <v>150</v>
@@ -9895,7 +9941,7 @@
       </c>
       <c r="C262" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D262" s="3">
         <v>150</v>
@@ -9932,7 +9978,7 @@
       </c>
       <c r="C263" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_150</v>
       </c>
       <c r="D263" s="3">
         <v>150</v>
@@ -9969,7 +10015,7 @@
       </c>
       <c r="C264" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D264" s="3">
         <v>160</v>
@@ -10003,7 +10049,7 @@
       </c>
       <c r="C265" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D265" s="3">
         <v>160</v>
@@ -10040,7 +10086,7 @@
       </c>
       <c r="C266" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D266" s="3">
         <v>160</v>
@@ -10077,7 +10123,7 @@
       </c>
       <c r="C267" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D267" s="3">
         <v>160</v>
@@ -10114,7 +10160,7 @@
       </c>
       <c r="C268" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D268" s="3">
         <v>160</v>
@@ -10151,7 +10197,7 @@
       </c>
       <c r="C269" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D269" s="3">
         <v>160</v>
@@ -10188,7 +10234,7 @@
       </c>
       <c r="C270" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D270" s="3">
         <v>160</v>
@@ -10225,7 +10271,7 @@
       </c>
       <c r="C271" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D271" s="3">
         <v>160</v>
@@ -10262,7 +10308,7 @@
       </c>
       <c r="C272" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D272" s="3">
         <v>160</v>
@@ -10299,7 +10345,7 @@
       </c>
       <c r="C273" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D273" s="3">
         <v>160</v>
@@ -10336,7 +10382,7 @@
       </c>
       <c r="C274" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D274" s="3">
         <v>160</v>
@@ -10373,7 +10419,7 @@
       </c>
       <c r="C275" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D275" s="3">
         <v>160</v>
@@ -10410,7 +10456,7 @@
       </c>
       <c r="C276" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D276" s="3">
         <v>160</v>
@@ -10447,7 +10493,7 @@
       </c>
       <c r="C277" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D277" s="3">
         <v>160</v>
@@ -10484,7 +10530,7 @@
       </c>
       <c r="C278" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_160</v>
       </c>
       <c r="D278" s="3">
         <v>160</v>
@@ -10521,7 +10567,7 @@
       </c>
       <c r="C279" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D279" s="3">
         <v>170</v>
@@ -10555,7 +10601,7 @@
       </c>
       <c r="C280" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D280" s="3">
         <v>170</v>
@@ -10592,7 +10638,7 @@
       </c>
       <c r="C281" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D281" s="3">
         <v>170</v>
@@ -10629,7 +10675,7 @@
       </c>
       <c r="C282" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D282" s="3">
         <v>170</v>
@@ -10666,7 +10712,7 @@
       </c>
       <c r="C283" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D283" s="3">
         <v>170</v>
@@ -10703,7 +10749,7 @@
       </c>
       <c r="C284" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D284" s="3">
         <v>170</v>
@@ -10740,7 +10786,7 @@
       </c>
       <c r="C285" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D285" s="3">
         <v>170</v>
@@ -10777,7 +10823,7 @@
       </c>
       <c r="C286" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D286" s="3">
         <v>170</v>
@@ -10814,7 +10860,7 @@
       </c>
       <c r="C287" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D287" s="3">
         <v>170</v>
@@ -10851,7 +10897,7 @@
       </c>
       <c r="C288" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D288" s="3">
         <v>170</v>
@@ -10888,7 +10934,7 @@
       </c>
       <c r="C289" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D289" s="3">
         <v>170</v>
@@ -10925,7 +10971,7 @@
       </c>
       <c r="C290" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D290" s="3">
         <v>170</v>
@@ -10962,7 +11008,7 @@
       </c>
       <c r="C291" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D291" s="3">
         <v>170</v>
@@ -10999,7 +11045,7 @@
       </c>
       <c r="C292" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D292" s="3">
         <v>170</v>
@@ -11036,7 +11082,7 @@
       </c>
       <c r="C293" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_170</v>
       </c>
       <c r="D293" s="3">
         <v>170</v>
@@ -11073,7 +11119,7 @@
       </c>
       <c r="C294" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D294" s="3">
         <v>180</v>
@@ -11107,7 +11153,7 @@
       </c>
       <c r="C295" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D295" s="3">
         <v>180</v>
@@ -11144,7 +11190,7 @@
       </c>
       <c r="C296" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D296" s="3">
         <v>180</v>
@@ -11181,7 +11227,7 @@
       </c>
       <c r="C297" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D297" s="3">
         <v>180</v>
@@ -11218,7 +11264,7 @@
       </c>
       <c r="C298" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D298" s="3">
         <v>180</v>
@@ -11255,7 +11301,7 @@
       </c>
       <c r="C299" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D299" s="3">
         <v>180</v>
@@ -11292,7 +11338,7 @@
       </c>
       <c r="C300" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D300" s="3">
         <v>180</v>
@@ -11329,7 +11375,7 @@
       </c>
       <c r="C301" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D301" s="3">
         <v>180</v>
@@ -11366,7 +11412,7 @@
       </c>
       <c r="C302" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D302" s="3">
         <v>180</v>
@@ -11403,7 +11449,7 @@
       </c>
       <c r="C303" t="str">
         <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D303" s="3">
         <v>180</v>
@@ -11439,8 +11485,8 @@
         <v>21</v>
       </c>
       <c r="C304" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" ref="C304:C367" si="11">IF(ISBLANK(B304),A304,A304&amp;"_"&amp;B304)&amp;IF(ISBLANK(D304),"_SI50_"&amp;E304,"_SI100_"&amp;D304)</f>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D304" s="3">
         <v>180</v>
@@ -11476,8 +11522,8 @@
         <v>21</v>
       </c>
       <c r="C305" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D305" s="3">
         <v>180</v>
@@ -11513,8 +11559,8 @@
         <v>21</v>
       </c>
       <c r="C306" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D306" s="3">
         <v>180</v>
@@ -11550,8 +11596,8 @@
         <v>21</v>
       </c>
       <c r="C307" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D307" s="3">
         <v>180</v>
@@ -11587,8 +11633,8 @@
         <v>21</v>
       </c>
       <c r="C308" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_180</v>
       </c>
       <c r="D308" s="3">
         <v>180</v>
@@ -11624,8 +11670,8 @@
         <v>21</v>
       </c>
       <c r="C309" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D309" s="3">
         <v>190</v>
@@ -11658,8 +11704,8 @@
         <v>21</v>
       </c>
       <c r="C310" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D310" s="3">
         <v>190</v>
@@ -11695,8 +11741,8 @@
         <v>21</v>
       </c>
       <c r="C311" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D311" s="3">
         <v>190</v>
@@ -11732,8 +11778,8 @@
         <v>21</v>
       </c>
       <c r="C312" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D312" s="3">
         <v>190</v>
@@ -11769,8 +11815,8 @@
         <v>21</v>
       </c>
       <c r="C313" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D313" s="3">
         <v>190</v>
@@ -11806,8 +11852,8 @@
         <v>21</v>
       </c>
       <c r="C314" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D314" s="3">
         <v>190</v>
@@ -11843,8 +11889,8 @@
         <v>21</v>
       </c>
       <c r="C315" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D315" s="3">
         <v>190</v>
@@ -11880,8 +11926,8 @@
         <v>21</v>
       </c>
       <c r="C316" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D316" s="3">
         <v>190</v>
@@ -11917,8 +11963,8 @@
         <v>21</v>
       </c>
       <c r="C317" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D317" s="3">
         <v>190</v>
@@ -11954,8 +12000,8 @@
         <v>21</v>
       </c>
       <c r="C318" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D318" s="3">
         <v>190</v>
@@ -11991,8 +12037,8 @@
         <v>21</v>
       </c>
       <c r="C319" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D319" s="3">
         <v>190</v>
@@ -12028,8 +12074,8 @@
         <v>21</v>
       </c>
       <c r="C320" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D320" s="3">
         <v>190</v>
@@ -12065,8 +12111,8 @@
         <v>21</v>
       </c>
       <c r="C321" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D321" s="3">
         <v>190</v>
@@ -12102,8 +12148,8 @@
         <v>21</v>
       </c>
       <c r="C322" t="str">
-        <f t="shared" si="9"/>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D322" s="3">
         <v>190</v>
@@ -12139,8 +12185,8 @@
         <v>21</v>
       </c>
       <c r="C323" t="str">
-        <f t="shared" ref="C323:C386" si="11">IF(ISBLANK(B323),A323,A323&amp;"_"&amp;B323)</f>
-        <v>McArdle_1961</v>
+        <f t="shared" si="11"/>
+        <v>McArdle_1961_SI100_190</v>
       </c>
       <c r="D323" s="3">
         <v>190</v>
@@ -12177,7 +12223,7 @@
       </c>
       <c r="C324" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D324" s="3">
         <v>200</v>
@@ -12211,7 +12257,7 @@
       </c>
       <c r="C325" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D325" s="3">
         <v>200</v>
@@ -12248,7 +12294,7 @@
       </c>
       <c r="C326" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D326" s="3">
         <v>200</v>
@@ -12285,7 +12331,7 @@
       </c>
       <c r="C327" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D327" s="3">
         <v>200</v>
@@ -12322,7 +12368,7 @@
       </c>
       <c r="C328" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D328" s="3">
         <v>200</v>
@@ -12359,7 +12405,7 @@
       </c>
       <c r="C329" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D329" s="3">
         <v>200</v>
@@ -12396,7 +12442,7 @@
       </c>
       <c r="C330" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D330" s="3">
         <v>200</v>
@@ -12433,7 +12479,7 @@
       </c>
       <c r="C331" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D331" s="3">
         <v>200</v>
@@ -12470,7 +12516,7 @@
       </c>
       <c r="C332" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D332" s="3">
         <v>200</v>
@@ -12507,7 +12553,7 @@
       </c>
       <c r="C333" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D333" s="3">
         <v>200</v>
@@ -12544,7 +12590,7 @@
       </c>
       <c r="C334" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D334" s="3">
         <v>200</v>
@@ -12581,7 +12627,7 @@
       </c>
       <c r="C335" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D335" s="3">
         <v>200</v>
@@ -12618,7 +12664,7 @@
       </c>
       <c r="C336" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D336" s="3">
         <v>200</v>
@@ -12655,7 +12701,7 @@
       </c>
       <c r="C337" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D337" s="3">
         <v>200</v>
@@ -12692,7 +12738,7 @@
       </c>
       <c r="C338" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_200</v>
       </c>
       <c r="D338" s="3">
         <v>200</v>
@@ -12729,7 +12775,7 @@
       </c>
       <c r="C339" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D339" s="3">
         <v>210</v>
@@ -12763,7 +12809,7 @@
       </c>
       <c r="C340" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D340" s="3">
         <v>210</v>
@@ -12800,7 +12846,7 @@
       </c>
       <c r="C341" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D341" s="3">
         <v>210</v>
@@ -12837,7 +12883,7 @@
       </c>
       <c r="C342" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D342" s="3">
         <v>210</v>
@@ -12874,7 +12920,7 @@
       </c>
       <c r="C343" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D343" s="3">
         <v>210</v>
@@ -12911,7 +12957,7 @@
       </c>
       <c r="C344" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D344" s="3">
         <v>210</v>
@@ -12948,7 +12994,7 @@
       </c>
       <c r="C345" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D345" s="3">
         <v>210</v>
@@ -12985,7 +13031,7 @@
       </c>
       <c r="C346" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D346" s="3">
         <v>210</v>
@@ -13022,7 +13068,7 @@
       </c>
       <c r="C347" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D347" s="3">
         <v>210</v>
@@ -13059,7 +13105,7 @@
       </c>
       <c r="C348" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D348" s="3">
         <v>210</v>
@@ -13096,7 +13142,7 @@
       </c>
       <c r="C349" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D349" s="3">
         <v>210</v>
@@ -13133,7 +13179,7 @@
       </c>
       <c r="C350" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D350" s="3">
         <v>210</v>
@@ -13170,7 +13216,7 @@
       </c>
       <c r="C351" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D351" s="3">
         <v>210</v>
@@ -13207,7 +13253,7 @@
       </c>
       <c r="C352" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D352" s="3">
         <v>210</v>
@@ -13244,7 +13290,7 @@
       </c>
       <c r="C353" t="str">
         <f t="shared" si="11"/>
-        <v>McArdle_1961</v>
+        <v>McArdle_1961_SI100_210</v>
       </c>
       <c r="D353" s="3">
         <v>210</v>
@@ -13284,10 +13330,13 @@
       </c>
       <c r="C354" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E354" s="3">
         <v>85</v>
+      </c>
+      <c r="F354" s="3">
+        <v>4</v>
       </c>
       <c r="G354" s="3">
         <v>30</v>
@@ -13318,10 +13367,13 @@
       </c>
       <c r="C355" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E355" s="3">
         <v>85</v>
+      </c>
+      <c r="F355" s="3">
+        <v>4</v>
       </c>
       <c r="G355" s="3">
         <v>35</v>
@@ -13352,10 +13404,13 @@
       </c>
       <c r="C356" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E356" s="3">
         <v>85</v>
+      </c>
+      <c r="F356" s="3">
+        <v>4</v>
       </c>
       <c r="G356" s="3">
         <v>40</v>
@@ -13386,10 +13441,13 @@
       </c>
       <c r="C357" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E357" s="3">
         <v>85</v>
+      </c>
+      <c r="F357" s="3">
+        <v>4</v>
       </c>
       <c r="G357" s="3">
         <v>45</v>
@@ -13420,10 +13478,13 @@
       </c>
       <c r="C358" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E358" s="3">
         <v>85</v>
+      </c>
+      <c r="F358" s="3">
+        <v>4</v>
       </c>
       <c r="G358" s="3">
         <v>50</v>
@@ -13454,10 +13515,13 @@
       </c>
       <c r="C359" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E359" s="3">
         <v>85</v>
+      </c>
+      <c r="F359" s="3">
+        <v>4</v>
       </c>
       <c r="G359" s="3">
         <v>55</v>
@@ -13488,10 +13552,13 @@
       </c>
       <c r="C360" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E360" s="3">
         <v>85</v>
+      </c>
+      <c r="F360" s="3">
+        <v>4</v>
       </c>
       <c r="G360" s="3">
         <v>60</v>
@@ -13522,10 +13589,13 @@
       </c>
       <c r="C361" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E361" s="3">
         <v>85</v>
+      </c>
+      <c r="F361" s="3">
+        <v>4</v>
       </c>
       <c r="G361" s="3">
         <v>65</v>
@@ -13556,10 +13626,13 @@
       </c>
       <c r="C362" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E362" s="3">
         <v>85</v>
+      </c>
+      <c r="F362" s="3">
+        <v>4</v>
       </c>
       <c r="G362" s="3">
         <v>70</v>
@@ -13590,10 +13663,13 @@
       </c>
       <c r="C363" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E363" s="3">
         <v>85</v>
+      </c>
+      <c r="F363" s="3">
+        <v>4</v>
       </c>
       <c r="G363" s="3">
         <v>75</v>
@@ -13624,10 +13700,13 @@
       </c>
       <c r="C364" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E364" s="3">
         <v>85</v>
+      </c>
+      <c r="F364" s="3">
+        <v>4</v>
       </c>
       <c r="G364" s="3">
         <v>80</v>
@@ -13658,10 +13737,13 @@
       </c>
       <c r="C365" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E365" s="3">
         <v>85</v>
+      </c>
+      <c r="F365" s="3">
+        <v>4</v>
       </c>
       <c r="G365" s="3">
         <v>85</v>
@@ -13692,10 +13774,13 @@
       </c>
       <c r="C366" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E366" s="3">
         <v>85</v>
+      </c>
+      <c r="F366" s="3">
+        <v>4</v>
       </c>
       <c r="G366" s="3">
         <v>90</v>
@@ -13726,10 +13811,13 @@
       </c>
       <c r="C367" t="str">
         <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E367" s="3">
         <v>85</v>
+      </c>
+      <c r="F367" s="3">
+        <v>4</v>
       </c>
       <c r="G367" s="3">
         <v>95</v>
@@ -13759,11 +13847,14 @@
         <v>35</v>
       </c>
       <c r="C368" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" ref="C368:C431" si="13">IF(ISBLANK(B368),A368,A368&amp;"_"&amp;B368)&amp;IF(ISBLANK(D368),"_SI50_"&amp;E368,"_SI100_"&amp;D368)</f>
+        <v>Curtis_et_al_1982_natural_SI50_85</v>
       </c>
       <c r="E368" s="3">
         <v>85</v>
+      </c>
+      <c r="F368" s="3">
+        <v>4</v>
       </c>
       <c r="G368" s="3">
         <v>100</v>
@@ -13793,11 +13884,14 @@
         <v>35</v>
       </c>
       <c r="C369" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E369" s="3">
         <v>105</v>
+      </c>
+      <c r="F369" s="3">
+        <v>3</v>
       </c>
       <c r="G369" s="3">
         <v>25</v>
@@ -13827,11 +13921,14 @@
         <v>35</v>
       </c>
       <c r="C370" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E370" s="3">
         <v>105</v>
+      </c>
+      <c r="F370" s="3">
+        <v>3</v>
       </c>
       <c r="G370" s="3">
         <v>30</v>
@@ -13861,11 +13958,14 @@
         <v>35</v>
       </c>
       <c r="C371" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E371" s="3">
         <v>105</v>
+      </c>
+      <c r="F371" s="3">
+        <v>3</v>
       </c>
       <c r="G371" s="3">
         <v>35</v>
@@ -13895,11 +13995,14 @@
         <v>35</v>
       </c>
       <c r="C372" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E372" s="3">
         <v>105</v>
+      </c>
+      <c r="F372" s="3">
+        <v>3</v>
       </c>
       <c r="G372" s="3">
         <v>40</v>
@@ -13929,11 +14032,14 @@
         <v>35</v>
       </c>
       <c r="C373" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E373" s="3">
         <v>105</v>
+      </c>
+      <c r="F373" s="3">
+        <v>3</v>
       </c>
       <c r="G373" s="3">
         <v>45</v>
@@ -13963,11 +14069,14 @@
         <v>35</v>
       </c>
       <c r="C374" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E374" s="3">
         <v>105</v>
+      </c>
+      <c r="F374" s="3">
+        <v>3</v>
       </c>
       <c r="G374" s="3">
         <v>50</v>
@@ -13997,11 +14106,14 @@
         <v>35</v>
       </c>
       <c r="C375" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E375" s="3">
         <v>105</v>
+      </c>
+      <c r="F375" s="3">
+        <v>3</v>
       </c>
       <c r="G375" s="3">
         <v>55</v>
@@ -14031,11 +14143,14 @@
         <v>35</v>
       </c>
       <c r="C376" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E376" s="3">
         <v>105</v>
+      </c>
+      <c r="F376" s="3">
+        <v>3</v>
       </c>
       <c r="G376" s="3">
         <v>60</v>
@@ -14065,11 +14180,14 @@
         <v>35</v>
       </c>
       <c r="C377" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E377" s="3">
         <v>105</v>
+      </c>
+      <c r="F377" s="3">
+        <v>3</v>
       </c>
       <c r="G377" s="3">
         <v>65</v>
@@ -14099,11 +14217,14 @@
         <v>35</v>
       </c>
       <c r="C378" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E378" s="3">
         <v>105</v>
+      </c>
+      <c r="F378" s="3">
+        <v>3</v>
       </c>
       <c r="G378" s="3">
         <v>70</v>
@@ -14133,11 +14254,14 @@
         <v>35</v>
       </c>
       <c r="C379" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E379" s="3">
         <v>105</v>
+      </c>
+      <c r="F379" s="3">
+        <v>3</v>
       </c>
       <c r="G379" s="3">
         <v>75</v>
@@ -14167,11 +14291,14 @@
         <v>35</v>
       </c>
       <c r="C380" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E380" s="3">
         <v>105</v>
+      </c>
+      <c r="F380" s="3">
+        <v>3</v>
       </c>
       <c r="G380" s="3">
         <v>80</v>
@@ -14201,11 +14328,14 @@
         <v>35</v>
       </c>
       <c r="C381" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E381" s="3">
         <v>105</v>
+      </c>
+      <c r="F381" s="3">
+        <v>3</v>
       </c>
       <c r="G381" s="3">
         <v>85</v>
@@ -14235,11 +14365,14 @@
         <v>35</v>
       </c>
       <c r="C382" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E382" s="3">
         <v>105</v>
+      </c>
+      <c r="F382" s="3">
+        <v>3</v>
       </c>
       <c r="G382" s="3">
         <v>90</v>
@@ -14269,11 +14402,14 @@
         <v>35</v>
       </c>
       <c r="C383" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E383" s="3">
         <v>105</v>
+      </c>
+      <c r="F383" s="3">
+        <v>3</v>
       </c>
       <c r="G383" s="3">
         <v>95</v>
@@ -14303,11 +14439,14 @@
         <v>35</v>
       </c>
       <c r="C384" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_105</v>
       </c>
       <c r="E384" s="3">
         <v>105</v>
+      </c>
+      <c r="F384" s="3">
+        <v>3</v>
       </c>
       <c r="G384" s="3">
         <v>100</v>
@@ -14337,11 +14476,14 @@
         <v>35</v>
       </c>
       <c r="C385" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E385" s="3">
         <v>125</v>
+      </c>
+      <c r="F385" s="3">
+        <v>2</v>
       </c>
       <c r="G385" s="3">
         <v>20</v>
@@ -14371,11 +14513,14 @@
         <v>35</v>
       </c>
       <c r="C386" t="str">
-        <f t="shared" si="11"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E386" s="3">
         <v>125</v>
+      </c>
+      <c r="F386" s="3">
+        <v>2</v>
       </c>
       <c r="G386" s="3">
         <v>25</v>
@@ -14405,11 +14550,14 @@
         <v>35</v>
       </c>
       <c r="C387" t="str">
-        <f t="shared" ref="C387:C450" si="13">IF(ISBLANK(B387),A387,A387&amp;"_"&amp;B387)</f>
-        <v>Curtis_et_al_1982_natural</v>
+        <f t="shared" si="13"/>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E387" s="3">
         <v>125</v>
+      </c>
+      <c r="F387" s="3">
+        <v>2</v>
       </c>
       <c r="G387" s="3">
         <v>30</v>
@@ -14440,10 +14588,13 @@
       </c>
       <c r="C388" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E388" s="3">
         <v>125</v>
+      </c>
+      <c r="F388" s="3">
+        <v>2</v>
       </c>
       <c r="G388" s="3">
         <v>35</v>
@@ -14474,10 +14625,13 @@
       </c>
       <c r="C389" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E389" s="3">
         <v>125</v>
+      </c>
+      <c r="F389" s="3">
+        <v>2</v>
       </c>
       <c r="G389" s="3">
         <v>40</v>
@@ -14508,10 +14662,13 @@
       </c>
       <c r="C390" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E390" s="3">
         <v>125</v>
+      </c>
+      <c r="F390" s="3">
+        <v>2</v>
       </c>
       <c r="G390" s="3">
         <v>45</v>
@@ -14542,10 +14699,13 @@
       </c>
       <c r="C391" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E391" s="3">
         <v>125</v>
+      </c>
+      <c r="F391" s="3">
+        <v>2</v>
       </c>
       <c r="G391" s="3">
         <v>50</v>
@@ -14576,10 +14736,13 @@
       </c>
       <c r="C392" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E392" s="3">
         <v>125</v>
+      </c>
+      <c r="F392" s="3">
+        <v>2</v>
       </c>
       <c r="G392" s="3">
         <v>55</v>
@@ -14610,10 +14773,13 @@
       </c>
       <c r="C393" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E393" s="3">
         <v>125</v>
+      </c>
+      <c r="F393" s="3">
+        <v>2</v>
       </c>
       <c r="G393" s="3">
         <v>60</v>
@@ -14644,10 +14810,13 @@
       </c>
       <c r="C394" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E394" s="3">
         <v>125</v>
+      </c>
+      <c r="F394" s="3">
+        <v>2</v>
       </c>
       <c r="G394" s="3">
         <v>65</v>
@@ -14678,10 +14847,13 @@
       </c>
       <c r="C395" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E395" s="3">
         <v>125</v>
+      </c>
+      <c r="F395" s="3">
+        <v>2</v>
       </c>
       <c r="G395" s="3">
         <v>70</v>
@@ -14712,10 +14884,13 @@
       </c>
       <c r="C396" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E396" s="3">
         <v>125</v>
+      </c>
+      <c r="F396" s="3">
+        <v>2</v>
       </c>
       <c r="G396" s="3">
         <v>75</v>
@@ -14746,10 +14921,13 @@
       </c>
       <c r="C397" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E397" s="3">
         <v>125</v>
+      </c>
+      <c r="F397" s="3">
+        <v>2</v>
       </c>
       <c r="G397" s="3">
         <v>80</v>
@@ -14780,10 +14958,13 @@
       </c>
       <c r="C398" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E398" s="3">
         <v>125</v>
+      </c>
+      <c r="F398" s="3">
+        <v>2</v>
       </c>
       <c r="G398" s="3">
         <v>85</v>
@@ -14814,10 +14995,13 @@
       </c>
       <c r="C399" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E399" s="3">
         <v>125</v>
+      </c>
+      <c r="F399" s="3">
+        <v>2</v>
       </c>
       <c r="G399" s="3">
         <v>90</v>
@@ -14848,10 +15032,13 @@
       </c>
       <c r="C400" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E400" s="3">
         <v>125</v>
+      </c>
+      <c r="F400" s="3">
+        <v>2</v>
       </c>
       <c r="G400" s="3">
         <v>95</v>
@@ -14882,10 +15069,13 @@
       </c>
       <c r="C401" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_125</v>
       </c>
       <c r="E401" s="3">
         <v>125</v>
+      </c>
+      <c r="F401" s="3">
+        <v>2</v>
       </c>
       <c r="G401" s="3">
         <v>100</v>
@@ -14916,10 +15106,13 @@
       </c>
       <c r="C402" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E402" s="3">
         <v>145</v>
+      </c>
+      <c r="F402" s="3">
+        <v>1</v>
       </c>
       <c r="G402" s="3">
         <v>20</v>
@@ -14950,10 +15143,13 @@
       </c>
       <c r="C403" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E403" s="3">
         <v>145</v>
+      </c>
+      <c r="F403" s="3">
+        <v>1</v>
       </c>
       <c r="G403" s="3">
         <v>25</v>
@@ -14984,10 +15180,13 @@
       </c>
       <c r="C404" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E404" s="3">
         <v>145</v>
+      </c>
+      <c r="F404" s="3">
+        <v>1</v>
       </c>
       <c r="G404" s="3">
         <v>30</v>
@@ -15018,10 +15217,13 @@
       </c>
       <c r="C405" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E405" s="3">
         <v>145</v>
+      </c>
+      <c r="F405" s="3">
+        <v>1</v>
       </c>
       <c r="G405" s="3">
         <v>35</v>
@@ -15052,10 +15254,13 @@
       </c>
       <c r="C406" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E406" s="3">
         <v>145</v>
+      </c>
+      <c r="F406" s="3">
+        <v>1</v>
       </c>
       <c r="G406" s="3">
         <v>40</v>
@@ -15086,10 +15291,13 @@
       </c>
       <c r="C407" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E407" s="3">
         <v>145</v>
+      </c>
+      <c r="F407" s="3">
+        <v>1</v>
       </c>
       <c r="G407" s="3">
         <v>45</v>
@@ -15120,10 +15328,13 @@
       </c>
       <c r="C408" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E408" s="3">
         <v>145</v>
+      </c>
+      <c r="F408" s="3">
+        <v>1</v>
       </c>
       <c r="G408" s="3">
         <v>50</v>
@@ -15154,10 +15365,13 @@
       </c>
       <c r="C409" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E409" s="3">
         <v>145</v>
+      </c>
+      <c r="F409" s="3">
+        <v>1</v>
       </c>
       <c r="G409" s="3">
         <v>55</v>
@@ -15188,10 +15402,13 @@
       </c>
       <c r="C410" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E410" s="3">
         <v>145</v>
+      </c>
+      <c r="F410" s="3">
+        <v>1</v>
       </c>
       <c r="G410" s="3">
         <v>60</v>
@@ -15222,10 +15439,13 @@
       </c>
       <c r="C411" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E411" s="3">
         <v>145</v>
+      </c>
+      <c r="F411" s="3">
+        <v>1</v>
       </c>
       <c r="G411" s="3">
         <v>65</v>
@@ -15256,10 +15476,13 @@
       </c>
       <c r="C412" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E412" s="3">
         <v>145</v>
+      </c>
+      <c r="F412" s="3">
+        <v>1</v>
       </c>
       <c r="G412" s="3">
         <v>70</v>
@@ -15290,10 +15513,13 @@
       </c>
       <c r="C413" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E413" s="3">
         <v>145</v>
+      </c>
+      <c r="F413" s="3">
+        <v>1</v>
       </c>
       <c r="G413" s="3">
         <v>75</v>
@@ -15324,10 +15550,13 @@
       </c>
       <c r="C414" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E414" s="3">
         <v>145</v>
+      </c>
+      <c r="F414" s="3">
+        <v>1</v>
       </c>
       <c r="G414" s="3">
         <v>80</v>
@@ -15358,10 +15587,13 @@
       </c>
       <c r="C415" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E415" s="3">
         <v>145</v>
+      </c>
+      <c r="F415" s="3">
+        <v>1</v>
       </c>
       <c r="G415" s="3">
         <v>85</v>
@@ -15392,10 +15624,13 @@
       </c>
       <c r="C416" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E416" s="3">
         <v>145</v>
+      </c>
+      <c r="F416" s="3">
+        <v>1</v>
       </c>
       <c r="G416" s="3">
         <v>90</v>
@@ -15426,10 +15661,13 @@
       </c>
       <c r="C417" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E417" s="3">
         <v>145</v>
+      </c>
+      <c r="F417" s="3">
+        <v>1</v>
       </c>
       <c r="G417" s="3">
         <v>95</v>
@@ -15460,10 +15698,13 @@
       </c>
       <c r="C418" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_natural</v>
+        <v>Curtis_et_al_1982_natural_SI50_145</v>
       </c>
       <c r="E418" s="3">
         <v>145</v>
+      </c>
+      <c r="F418" s="3">
+        <v>1</v>
       </c>
       <c r="G418" s="3">
         <v>100</v>
@@ -15494,10 +15735,13 @@
       </c>
       <c r="C419" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E419" s="3">
         <v>85</v>
+      </c>
+      <c r="F419" s="3">
+        <v>4</v>
       </c>
       <c r="G419" s="3">
         <v>20</v>
@@ -15528,10 +15772,13 @@
       </c>
       <c r="C420" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E420" s="3">
         <v>85</v>
+      </c>
+      <c r="F420" s="3">
+        <v>4</v>
       </c>
       <c r="G420" s="3">
         <v>25</v>
@@ -15562,10 +15809,13 @@
       </c>
       <c r="C421" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E421" s="3">
         <v>85</v>
+      </c>
+      <c r="F421" s="3">
+        <v>4</v>
       </c>
       <c r="G421" s="3">
         <v>30</v>
@@ -15596,10 +15846,13 @@
       </c>
       <c r="C422" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E422" s="3">
         <v>85</v>
+      </c>
+      <c r="F422" s="3">
+        <v>4</v>
       </c>
       <c r="G422" s="3">
         <v>35</v>
@@ -15630,10 +15883,13 @@
       </c>
       <c r="C423" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E423" s="3">
         <v>85</v>
+      </c>
+      <c r="F423" s="3">
+        <v>4</v>
       </c>
       <c r="G423" s="3">
         <v>40</v>
@@ -15664,10 +15920,13 @@
       </c>
       <c r="C424" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E424" s="3">
         <v>85</v>
+      </c>
+      <c r="F424" s="3">
+        <v>4</v>
       </c>
       <c r="G424" s="3">
         <v>45</v>
@@ -15698,10 +15957,13 @@
       </c>
       <c r="C425" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E425" s="3">
         <v>85</v>
+      </c>
+      <c r="F425" s="3">
+        <v>4</v>
       </c>
       <c r="G425" s="3">
         <v>50</v>
@@ -15732,10 +15994,13 @@
       </c>
       <c r="C426" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E426" s="3">
         <v>85</v>
+      </c>
+      <c r="F426" s="3">
+        <v>4</v>
       </c>
       <c r="G426" s="3">
         <v>55</v>
@@ -15766,10 +16031,13 @@
       </c>
       <c r="C427" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E427" s="3">
         <v>85</v>
+      </c>
+      <c r="F427" s="3">
+        <v>4</v>
       </c>
       <c r="G427" s="3">
         <v>60</v>
@@ -15800,10 +16068,13 @@
       </c>
       <c r="C428" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E428" s="3">
         <v>85</v>
+      </c>
+      <c r="F428" s="3">
+        <v>4</v>
       </c>
       <c r="G428" s="3">
         <v>65</v>
@@ -15834,10 +16105,13 @@
       </c>
       <c r="C429" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E429" s="3">
         <v>85</v>
+      </c>
+      <c r="F429" s="3">
+        <v>4</v>
       </c>
       <c r="G429" s="3">
         <v>70</v>
@@ -15868,10 +16142,13 @@
       </c>
       <c r="C430" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E430" s="3">
         <v>85</v>
+      </c>
+      <c r="F430" s="3">
+        <v>4</v>
       </c>
       <c r="G430" s="3">
         <v>75</v>
@@ -15902,10 +16179,13 @@
       </c>
       <c r="C431" t="str">
         <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E431" s="3">
         <v>85</v>
+      </c>
+      <c r="F431" s="3">
+        <v>4</v>
       </c>
       <c r="G431" s="3">
         <v>80</v>
@@ -15935,11 +16215,14 @@
         <v>36</v>
       </c>
       <c r="C432" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" ref="C432:C495" si="15">IF(ISBLANK(B432),A432,A432&amp;"_"&amp;B432)&amp;IF(ISBLANK(D432),"_SI50_"&amp;E432,"_SI100_"&amp;D432)</f>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E432" s="3">
         <v>85</v>
+      </c>
+      <c r="F432" s="3">
+        <v>4</v>
       </c>
       <c r="G432" s="3">
         <v>85</v>
@@ -15969,11 +16252,14 @@
         <v>36</v>
       </c>
       <c r="C433" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E433" s="3">
         <v>85</v>
+      </c>
+      <c r="F433" s="3">
+        <v>4</v>
       </c>
       <c r="G433" s="3">
         <v>90</v>
@@ -16003,11 +16289,14 @@
         <v>36</v>
       </c>
       <c r="C434" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E434" s="3">
         <v>85</v>
+      </c>
+      <c r="F434" s="3">
+        <v>4</v>
       </c>
       <c r="G434" s="3">
         <v>95</v>
@@ -16037,11 +16326,14 @@
         <v>36</v>
       </c>
       <c r="C435" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E435" s="3">
         <v>85</v>
+      </c>
+      <c r="F435" s="3">
+        <v>4</v>
       </c>
       <c r="G435" s="3">
         <v>100</v>
@@ -16071,11 +16363,14 @@
         <v>36</v>
       </c>
       <c r="C436" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E436" s="3">
         <v>105</v>
+      </c>
+      <c r="F436" s="3">
+        <v>3</v>
       </c>
       <c r="G436" s="3">
         <v>20</v>
@@ -16105,11 +16400,14 @@
         <v>36</v>
       </c>
       <c r="C437" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E437" s="3">
         <v>105</v>
+      </c>
+      <c r="F437" s="3">
+        <v>3</v>
       </c>
       <c r="G437" s="3">
         <v>25</v>
@@ -16139,11 +16437,14 @@
         <v>36</v>
       </c>
       <c r="C438" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E438" s="3">
         <v>105</v>
+      </c>
+      <c r="F438" s="3">
+        <v>3</v>
       </c>
       <c r="G438" s="3">
         <v>30</v>
@@ -16173,11 +16474,14 @@
         <v>36</v>
       </c>
       <c r="C439" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E439" s="3">
         <v>105</v>
+      </c>
+      <c r="F439" s="3">
+        <v>3</v>
       </c>
       <c r="G439" s="3">
         <v>35</v>
@@ -16207,11 +16511,14 @@
         <v>36</v>
       </c>
       <c r="C440" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E440" s="3">
         <v>105</v>
+      </c>
+      <c r="F440" s="3">
+        <v>3</v>
       </c>
       <c r="G440" s="3">
         <v>40</v>
@@ -16241,11 +16548,14 @@
         <v>36</v>
       </c>
       <c r="C441" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E441" s="3">
         <v>105</v>
+      </c>
+      <c r="F441" s="3">
+        <v>3</v>
       </c>
       <c r="G441" s="3">
         <v>45</v>
@@ -16275,11 +16585,14 @@
         <v>36</v>
       </c>
       <c r="C442" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E442" s="3">
         <v>105</v>
+      </c>
+      <c r="F442" s="3">
+        <v>3</v>
       </c>
       <c r="G442" s="3">
         <v>50</v>
@@ -16309,11 +16622,14 @@
         <v>36</v>
       </c>
       <c r="C443" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E443" s="3">
         <v>105</v>
+      </c>
+      <c r="F443" s="3">
+        <v>3</v>
       </c>
       <c r="G443" s="3">
         <v>55</v>
@@ -16343,11 +16659,14 @@
         <v>36</v>
       </c>
       <c r="C444" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E444" s="3">
         <v>105</v>
+      </c>
+      <c r="F444" s="3">
+        <v>3</v>
       </c>
       <c r="G444" s="3">
         <v>60</v>
@@ -16377,11 +16696,14 @@
         <v>36</v>
       </c>
       <c r="C445" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E445" s="3">
         <v>105</v>
+      </c>
+      <c r="F445" s="3">
+        <v>3</v>
       </c>
       <c r="G445" s="3">
         <v>65</v>
@@ -16411,11 +16733,14 @@
         <v>36</v>
       </c>
       <c r="C446" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E446" s="3">
         <v>105</v>
+      </c>
+      <c r="F446" s="3">
+        <v>3</v>
       </c>
       <c r="G446" s="3">
         <v>70</v>
@@ -16445,11 +16770,14 @@
         <v>36</v>
       </c>
       <c r="C447" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E447" s="3">
         <v>105</v>
+      </c>
+      <c r="F447" s="3">
+        <v>3</v>
       </c>
       <c r="G447" s="3">
         <v>75</v>
@@ -16479,11 +16807,14 @@
         <v>36</v>
       </c>
       <c r="C448" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E448" s="3">
         <v>105</v>
+      </c>
+      <c r="F448" s="3">
+        <v>3</v>
       </c>
       <c r="G448" s="3">
         <v>80</v>
@@ -16513,11 +16844,14 @@
         <v>36</v>
       </c>
       <c r="C449" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E449" s="3">
         <v>105</v>
+      </c>
+      <c r="F449" s="3">
+        <v>3</v>
       </c>
       <c r="G449" s="3">
         <v>85</v>
@@ -16547,11 +16881,14 @@
         <v>36</v>
       </c>
       <c r="C450" t="str">
-        <f t="shared" si="13"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E450" s="3">
         <v>105</v>
+      </c>
+      <c r="F450" s="3">
+        <v>3</v>
       </c>
       <c r="G450" s="3">
         <v>90</v>
@@ -16581,11 +16918,14 @@
         <v>36</v>
       </c>
       <c r="C451" t="str">
-        <f t="shared" ref="C451:C488" si="15">IF(ISBLANK(B451),A451,A451&amp;"_"&amp;B451)</f>
-        <v>Curtis_et_al_1982_planted</v>
+        <f t="shared" si="15"/>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E451" s="3">
         <v>105</v>
+      </c>
+      <c r="F451" s="3">
+        <v>3</v>
       </c>
       <c r="G451" s="3">
         <v>95</v>
@@ -16616,10 +16956,13 @@
       </c>
       <c r="C452" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_105</v>
       </c>
       <c r="E452" s="3">
         <v>105</v>
+      </c>
+      <c r="F452" s="3">
+        <v>3</v>
       </c>
       <c r="G452" s="3">
         <v>100</v>
@@ -16650,10 +16993,13 @@
       </c>
       <c r="C453" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E453" s="3">
         <v>125</v>
+      </c>
+      <c r="F453" s="3">
+        <v>2</v>
       </c>
       <c r="G453" s="3">
         <v>15</v>
@@ -16684,10 +17030,13 @@
       </c>
       <c r="C454" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E454" s="3">
         <v>125</v>
+      </c>
+      <c r="F454" s="3">
+        <v>2</v>
       </c>
       <c r="G454" s="3">
         <v>20</v>
@@ -16718,10 +17067,13 @@
       </c>
       <c r="C455" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E455" s="3">
         <v>125</v>
+      </c>
+      <c r="F455" s="3">
+        <v>2</v>
       </c>
       <c r="G455" s="3">
         <v>25</v>
@@ -16752,10 +17104,13 @@
       </c>
       <c r="C456" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E456" s="3">
         <v>125</v>
+      </c>
+      <c r="F456" s="3">
+        <v>2</v>
       </c>
       <c r="G456" s="3">
         <v>30</v>
@@ -16786,10 +17141,13 @@
       </c>
       <c r="C457" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E457" s="3">
         <v>125</v>
+      </c>
+      <c r="F457" s="3">
+        <v>2</v>
       </c>
       <c r="G457" s="3">
         <v>35</v>
@@ -16820,10 +17178,13 @@
       </c>
       <c r="C458" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E458" s="3">
         <v>125</v>
+      </c>
+      <c r="F458" s="3">
+        <v>2</v>
       </c>
       <c r="G458" s="3">
         <v>40</v>
@@ -16854,10 +17215,13 @@
       </c>
       <c r="C459" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E459" s="3">
         <v>125</v>
+      </c>
+      <c r="F459" s="3">
+        <v>2</v>
       </c>
       <c r="G459" s="3">
         <v>45</v>
@@ -16888,10 +17252,13 @@
       </c>
       <c r="C460" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E460" s="3">
         <v>125</v>
+      </c>
+      <c r="F460" s="3">
+        <v>2</v>
       </c>
       <c r="G460" s="3">
         <v>50</v>
@@ -16922,10 +17289,13 @@
       </c>
       <c r="C461" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E461" s="3">
         <v>125</v>
+      </c>
+      <c r="F461" s="3">
+        <v>2</v>
       </c>
       <c r="G461" s="3">
         <v>55</v>
@@ -16956,10 +17326,13 @@
       </c>
       <c r="C462" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E462" s="3">
         <v>125</v>
+      </c>
+      <c r="F462" s="3">
+        <v>2</v>
       </c>
       <c r="G462" s="3">
         <v>60</v>
@@ -16990,10 +17363,13 @@
       </c>
       <c r="C463" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E463" s="3">
         <v>125</v>
+      </c>
+      <c r="F463" s="3">
+        <v>2</v>
       </c>
       <c r="G463" s="3">
         <v>65</v>
@@ -17024,10 +17400,13 @@
       </c>
       <c r="C464" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E464" s="3">
         <v>125</v>
+      </c>
+      <c r="F464" s="3">
+        <v>2</v>
       </c>
       <c r="G464" s="3">
         <v>70</v>
@@ -17058,10 +17437,13 @@
       </c>
       <c r="C465" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E465" s="3">
         <v>125</v>
+      </c>
+      <c r="F465" s="3">
+        <v>2</v>
       </c>
       <c r="G465" s="3">
         <v>75</v>
@@ -17092,10 +17474,13 @@
       </c>
       <c r="C466" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E466" s="3">
         <v>125</v>
+      </c>
+      <c r="F466" s="3">
+        <v>2</v>
       </c>
       <c r="G466" s="3">
         <v>80</v>
@@ -17126,10 +17511,13 @@
       </c>
       <c r="C467" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E467" s="3">
         <v>125</v>
+      </c>
+      <c r="F467" s="3">
+        <v>2</v>
       </c>
       <c r="G467" s="3">
         <v>85</v>
@@ -17160,10 +17548,13 @@
       </c>
       <c r="C468" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E468" s="3">
         <v>125</v>
+      </c>
+      <c r="F468" s="3">
+        <v>2</v>
       </c>
       <c r="G468" s="3">
         <v>90</v>
@@ -17194,10 +17585,13 @@
       </c>
       <c r="C469" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E469" s="3">
         <v>125</v>
+      </c>
+      <c r="F469" s="3">
+        <v>2</v>
       </c>
       <c r="G469" s="3">
         <v>95</v>
@@ -17228,10 +17622,13 @@
       </c>
       <c r="C470" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_125</v>
       </c>
       <c r="E470" s="3">
         <v>125</v>
+      </c>
+      <c r="F470" s="3">
+        <v>2</v>
       </c>
       <c r="G470" s="3">
         <v>100</v>
@@ -17262,10 +17659,13 @@
       </c>
       <c r="C471" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E471" s="3">
         <v>145</v>
+      </c>
+      <c r="F471" s="3">
+        <v>1</v>
       </c>
       <c r="G471" s="3">
         <v>15</v>
@@ -17296,10 +17696,13 @@
       </c>
       <c r="C472" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E472" s="3">
         <v>145</v>
+      </c>
+      <c r="F472" s="3">
+        <v>1</v>
       </c>
       <c r="G472" s="3">
         <v>20</v>
@@ -17330,10 +17733,13 @@
       </c>
       <c r="C473" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E473" s="3">
         <v>145</v>
+      </c>
+      <c r="F473" s="3">
+        <v>1</v>
       </c>
       <c r="G473" s="3">
         <v>25</v>
@@ -17364,10 +17770,13 @@
       </c>
       <c r="C474" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E474" s="3">
         <v>145</v>
+      </c>
+      <c r="F474" s="3">
+        <v>1</v>
       </c>
       <c r="G474" s="3">
         <v>30</v>
@@ -17398,10 +17807,13 @@
       </c>
       <c r="C475" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E475" s="3">
         <v>145</v>
+      </c>
+      <c r="F475" s="3">
+        <v>1</v>
       </c>
       <c r="G475" s="3">
         <v>35</v>
@@ -17432,10 +17844,13 @@
       </c>
       <c r="C476" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E476" s="3">
         <v>145</v>
+      </c>
+      <c r="F476" s="3">
+        <v>1</v>
       </c>
       <c r="G476" s="3">
         <v>40</v>
@@ -17466,10 +17881,13 @@
       </c>
       <c r="C477" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E477" s="3">
         <v>145</v>
+      </c>
+      <c r="F477" s="3">
+        <v>1</v>
       </c>
       <c r="G477" s="3">
         <v>45</v>
@@ -17500,10 +17918,13 @@
       </c>
       <c r="C478" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E478" s="3">
         <v>145</v>
+      </c>
+      <c r="F478" s="3">
+        <v>1</v>
       </c>
       <c r="G478" s="3">
         <v>50</v>
@@ -17534,10 +17955,13 @@
       </c>
       <c r="C479" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E479" s="3">
         <v>145</v>
+      </c>
+      <c r="F479" s="3">
+        <v>1</v>
       </c>
       <c r="G479" s="3">
         <v>55</v>
@@ -17568,10 +17992,13 @@
       </c>
       <c r="C480" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E480" s="3">
         <v>145</v>
+      </c>
+      <c r="F480" s="3">
+        <v>1</v>
       </c>
       <c r="G480" s="3">
         <v>60</v>
@@ -17602,10 +18029,13 @@
       </c>
       <c r="C481" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E481" s="3">
         <v>145</v>
+      </c>
+      <c r="F481" s="3">
+        <v>1</v>
       </c>
       <c r="G481" s="3">
         <v>65</v>
@@ -17636,10 +18066,13 @@
       </c>
       <c r="C482" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E482" s="3">
         <v>145</v>
+      </c>
+      <c r="F482" s="3">
+        <v>1</v>
       </c>
       <c r="G482" s="3">
         <v>70</v>
@@ -17670,10 +18103,13 @@
       </c>
       <c r="C483" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E483" s="3">
         <v>145</v>
+      </c>
+      <c r="F483" s="3">
+        <v>1</v>
       </c>
       <c r="G483" s="3">
         <v>75</v>
@@ -17704,10 +18140,13 @@
       </c>
       <c r="C484" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E484" s="3">
         <v>145</v>
+      </c>
+      <c r="F484" s="3">
+        <v>1</v>
       </c>
       <c r="G484" s="3">
         <v>80</v>
@@ -17738,10 +18177,13 @@
       </c>
       <c r="C485" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E485" s="3">
         <v>145</v>
+      </c>
+      <c r="F485" s="3">
+        <v>1</v>
       </c>
       <c r="G485" s="3">
         <v>85</v>
@@ -17772,10 +18214,13 @@
       </c>
       <c r="C486" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E486" s="3">
         <v>145</v>
+      </c>
+      <c r="F486" s="3">
+        <v>1</v>
       </c>
       <c r="G486" s="3">
         <v>90</v>
@@ -17806,10 +18251,13 @@
       </c>
       <c r="C487" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E487" s="3">
         <v>145</v>
+      </c>
+      <c r="F487" s="3">
+        <v>1</v>
       </c>
       <c r="G487" s="3">
         <v>95</v>
@@ -17840,10 +18288,13 @@
       </c>
       <c r="C488" t="str">
         <f t="shared" si="15"/>
-        <v>Curtis_et_al_1982_planted</v>
+        <v>Curtis_et_al_1982_planted_SI50_145</v>
       </c>
       <c r="E488" s="3">
         <v>145</v>
+      </c>
+      <c r="F488" s="3">
+        <v>1</v>
       </c>
       <c r="G488" s="3">
         <v>100</v>
@@ -17863,6 +18314,952 @@
       <c r="M488" s="2">
         <f t="shared" si="16"/>
         <v>23.953220512936181</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>50</v>
+      </c>
+      <c r="C489" t="str">
+        <f t="shared" si="15"/>
+        <v>SMC_2016_SI50_106</v>
+      </c>
+      <c r="E489" s="3">
+        <v>106</v>
+      </c>
+      <c r="F489" s="3">
+        <v>3</v>
+      </c>
+      <c r="G489" s="6"/>
+      <c r="H489" s="6"/>
+      <c r="I489" s="6"/>
+      <c r="J489" s="6"/>
+      <c r="K489" s="6"/>
+      <c r="L489" s="6"/>
+      <c r="M489" s="6"/>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>50</v>
+      </c>
+      <c r="C490" t="str">
+        <f t="shared" si="15"/>
+        <v>SMC_2016_SI50_106</v>
+      </c>
+      <c r="E490">
+        <v>106</v>
+      </c>
+      <c r="F490" s="3">
+        <v>3</v>
+      </c>
+      <c r="G490" s="7">
+        <v>8</v>
+      </c>
+      <c r="H490" s="7">
+        <v>933</v>
+      </c>
+      <c r="I490" s="7">
+        <v>947</v>
+      </c>
+      <c r="K490" s="7">
+        <v>57</v>
+      </c>
+      <c r="L490" s="7">
+        <v>370</v>
+      </c>
+      <c r="M490" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>50</v>
+      </c>
+      <c r="C491" t="str">
+        <f t="shared" si="15"/>
+        <v>SMC_2016_SI50_106</v>
+      </c>
+      <c r="E491">
+        <v>106</v>
+      </c>
+      <c r="F491" s="3">
+        <v>3</v>
+      </c>
+      <c r="G491" s="7">
+        <v>13</v>
+      </c>
+      <c r="H491" s="7">
+        <v>2512</v>
+      </c>
+      <c r="I491" s="7">
+        <v>4069</v>
+      </c>
+      <c r="K491" s="7">
+        <v>103</v>
+      </c>
+      <c r="L491" s="7">
+        <v>370</v>
+      </c>
+      <c r="M491" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>50</v>
+      </c>
+      <c r="C492" t="str">
+        <f t="shared" si="15"/>
+        <v>SMC_2016_SI50_106</v>
+      </c>
+      <c r="E492">
+        <v>106</v>
+      </c>
+      <c r="F492" s="3">
+        <v>3</v>
+      </c>
+      <c r="G492" s="7">
+        <v>18</v>
+      </c>
+      <c r="H492" s="7">
+        <v>4425</v>
+      </c>
+      <c r="I492" s="7">
+        <v>10345</v>
+      </c>
+      <c r="K492" s="7">
+        <v>149</v>
+      </c>
+      <c r="L492" s="7">
+        <v>370</v>
+      </c>
+      <c r="M492" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>50</v>
+      </c>
+      <c r="C493" t="str">
+        <f t="shared" si="15"/>
+        <v>SMC_2016_SI50_106</v>
+      </c>
+      <c r="E493">
+        <v>106</v>
+      </c>
+      <c r="F493" s="3">
+        <v>3</v>
+      </c>
+      <c r="G493" s="7">
+        <v>23</v>
+      </c>
+      <c r="H493" s="7">
+        <v>6180</v>
+      </c>
+      <c r="I493" s="7">
+        <v>19253</v>
+      </c>
+      <c r="K493" s="7">
+        <v>190</v>
+      </c>
+      <c r="L493" s="7">
+        <v>370</v>
+      </c>
+      <c r="M493" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>50</v>
+      </c>
+      <c r="C494" t="str">
+        <f t="shared" si="15"/>
+        <v>SMC_2016_SI50_106</v>
+      </c>
+      <c r="E494">
+        <v>106</v>
+      </c>
+      <c r="F494" s="3">
+        <v>3</v>
+      </c>
+      <c r="G494" s="7">
+        <v>28</v>
+      </c>
+      <c r="H494" s="7">
+        <v>7555</v>
+      </c>
+      <c r="I494" s="7">
+        <v>29409</v>
+      </c>
+      <c r="K494" s="7">
+        <v>224</v>
+      </c>
+      <c r="L494" s="7">
+        <v>370</v>
+      </c>
+      <c r="M494" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>50</v>
+      </c>
+      <c r="C495" t="str">
+        <f t="shared" si="15"/>
+        <v>SMC_2016_SI50_106</v>
+      </c>
+      <c r="E495">
+        <v>106</v>
+      </c>
+      <c r="F495" s="3">
+        <v>3</v>
+      </c>
+      <c r="G495" s="7">
+        <v>33</v>
+      </c>
+      <c r="H495" s="7">
+        <v>8536</v>
+      </c>
+      <c r="I495" s="7">
+        <v>39436</v>
+      </c>
+      <c r="K495" s="7">
+        <v>250</v>
+      </c>
+      <c r="L495" s="7">
+        <v>370</v>
+      </c>
+      <c r="M495" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>50</v>
+      </c>
+      <c r="C496" t="str">
+        <f t="shared" ref="C496:C517" si="17">IF(ISBLANK(B496),A496,A496&amp;"_"&amp;B496)&amp;IF(ISBLANK(D496),"_SI50_"&amp;E496,"_SI100_"&amp;D496)</f>
+        <v>SMC_2016_SI50_106</v>
+      </c>
+      <c r="E496">
+        <v>106</v>
+      </c>
+      <c r="F496" s="3">
+        <v>3</v>
+      </c>
+      <c r="G496" s="7">
+        <v>38</v>
+      </c>
+      <c r="H496" s="7">
+        <v>9197</v>
+      </c>
+      <c r="I496" s="7">
+        <v>48425</v>
+      </c>
+      <c r="K496" s="7">
+        <v>269</v>
+      </c>
+      <c r="L496" s="7">
+        <v>338</v>
+      </c>
+      <c r="M496" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>50</v>
+      </c>
+      <c r="C497" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_110</v>
+      </c>
+      <c r="E497">
+        <v>110</v>
+      </c>
+      <c r="F497" s="3">
+        <v>3</v>
+      </c>
+      <c r="G497" s="7">
+        <v>8</v>
+      </c>
+      <c r="H497" s="7">
+        <v>1078</v>
+      </c>
+      <c r="I497" s="7">
+        <v>1182</v>
+      </c>
+      <c r="K497" s="7">
+        <v>63</v>
+      </c>
+      <c r="L497" s="7">
+        <v>370</v>
+      </c>
+      <c r="M497" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>50</v>
+      </c>
+      <c r="C498" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_110</v>
+      </c>
+      <c r="E498">
+        <v>110</v>
+      </c>
+      <c r="F498" s="3">
+        <v>3</v>
+      </c>
+      <c r="G498" s="7">
+        <v>13</v>
+      </c>
+      <c r="H498" s="7">
+        <v>2791</v>
+      </c>
+      <c r="I498" s="7">
+        <v>4876</v>
+      </c>
+      <c r="K498" s="7">
+        <v>112</v>
+      </c>
+      <c r="L498" s="7">
+        <v>370</v>
+      </c>
+      <c r="M498" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>50</v>
+      </c>
+      <c r="C499" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_110</v>
+      </c>
+      <c r="E499">
+        <v>110</v>
+      </c>
+      <c r="F499" s="3">
+        <v>3</v>
+      </c>
+      <c r="G499" s="7">
+        <v>18</v>
+      </c>
+      <c r="H499" s="7">
+        <v>4772</v>
+      </c>
+      <c r="I499" s="7">
+        <v>11974</v>
+      </c>
+      <c r="K499" s="7">
+        <v>160</v>
+      </c>
+      <c r="L499" s="7">
+        <v>370</v>
+      </c>
+      <c r="M499" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>50</v>
+      </c>
+      <c r="C500" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_110</v>
+      </c>
+      <c r="E500">
+        <v>110</v>
+      </c>
+      <c r="F500" s="3">
+        <v>3</v>
+      </c>
+      <c r="G500" s="7">
+        <v>23</v>
+      </c>
+      <c r="H500" s="7">
+        <v>6520</v>
+      </c>
+      <c r="I500" s="7">
+        <v>21647</v>
+      </c>
+      <c r="K500" s="7">
+        <v>202</v>
+      </c>
+      <c r="L500" s="7">
+        <v>370</v>
+      </c>
+      <c r="M500" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>50</v>
+      </c>
+      <c r="C501" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_110</v>
+      </c>
+      <c r="E501">
+        <v>110</v>
+      </c>
+      <c r="F501" s="3">
+        <v>3</v>
+      </c>
+      <c r="G501" s="7">
+        <v>28</v>
+      </c>
+      <c r="H501" s="7">
+        <v>7842</v>
+      </c>
+      <c r="I501" s="7">
+        <v>32281</v>
+      </c>
+      <c r="K501" s="7">
+        <v>235</v>
+      </c>
+      <c r="L501" s="7">
+        <v>370</v>
+      </c>
+      <c r="M501" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>50</v>
+      </c>
+      <c r="C502" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_110</v>
+      </c>
+      <c r="E502">
+        <v>110</v>
+      </c>
+      <c r="F502" s="3">
+        <v>3</v>
+      </c>
+      <c r="G502" s="7">
+        <v>33</v>
+      </c>
+      <c r="H502" s="7">
+        <v>8758</v>
+      </c>
+      <c r="I502" s="7">
+        <v>42447</v>
+      </c>
+      <c r="K502" s="7">
+        <v>260</v>
+      </c>
+      <c r="L502" s="7">
+        <v>357</v>
+      </c>
+      <c r="M502" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>50</v>
+      </c>
+      <c r="C503" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_110</v>
+      </c>
+      <c r="E503">
+        <v>110</v>
+      </c>
+      <c r="F503" s="3">
+        <v>3</v>
+      </c>
+      <c r="G503" s="7">
+        <v>38</v>
+      </c>
+      <c r="H503" s="7">
+        <v>9360</v>
+      </c>
+      <c r="I503" s="7">
+        <v>51300</v>
+      </c>
+      <c r="K503" s="7">
+        <v>279</v>
+      </c>
+      <c r="L503" s="7">
+        <v>314</v>
+      </c>
+      <c r="M503" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>50</v>
+      </c>
+      <c r="C504" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_115</v>
+      </c>
+      <c r="E504">
+        <v>115</v>
+      </c>
+      <c r="F504" s="3">
+        <v>2</v>
+      </c>
+      <c r="G504" s="7">
+        <v>8</v>
+      </c>
+      <c r="H504" s="7">
+        <v>1288</v>
+      </c>
+      <c r="I504" s="7">
+        <v>1557</v>
+      </c>
+      <c r="K504" s="7">
+        <v>71</v>
+      </c>
+      <c r="L504" s="7">
+        <v>370</v>
+      </c>
+      <c r="M504" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>50</v>
+      </c>
+      <c r="C505" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_115</v>
+      </c>
+      <c r="E505">
+        <v>115</v>
+      </c>
+      <c r="F505" s="3">
+        <v>2</v>
+      </c>
+      <c r="G505" s="7">
+        <v>13</v>
+      </c>
+      <c r="H505" s="7">
+        <v>3172</v>
+      </c>
+      <c r="I505" s="7">
+        <v>6089</v>
+      </c>
+      <c r="K505" s="7">
+        <v>124</v>
+      </c>
+      <c r="L505" s="7">
+        <v>370</v>
+      </c>
+      <c r="M505" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>50</v>
+      </c>
+      <c r="C506" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_115</v>
+      </c>
+      <c r="E506">
+        <v>115</v>
+      </c>
+      <c r="F506" s="3">
+        <v>2</v>
+      </c>
+      <c r="G506" s="7">
+        <v>18</v>
+      </c>
+      <c r="H506" s="7">
+        <v>5223</v>
+      </c>
+      <c r="I506" s="7">
+        <v>14300</v>
+      </c>
+      <c r="K506" s="7">
+        <v>174</v>
+      </c>
+      <c r="L506" s="7">
+        <v>370</v>
+      </c>
+      <c r="M506" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>50</v>
+      </c>
+      <c r="C507" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_115</v>
+      </c>
+      <c r="E507">
+        <v>115</v>
+      </c>
+      <c r="F507" s="3">
+        <v>2</v>
+      </c>
+      <c r="G507" s="7">
+        <v>23</v>
+      </c>
+      <c r="H507" s="7">
+        <v>6941</v>
+      </c>
+      <c r="I507" s="7">
+        <v>24915</v>
+      </c>
+      <c r="K507" s="7">
+        <v>216</v>
+      </c>
+      <c r="L507" s="7">
+        <v>370</v>
+      </c>
+      <c r="M507" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>50</v>
+      </c>
+      <c r="C508" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_115</v>
+      </c>
+      <c r="E508">
+        <v>115</v>
+      </c>
+      <c r="F508" s="3">
+        <v>2</v>
+      </c>
+      <c r="G508" s="7">
+        <v>28</v>
+      </c>
+      <c r="H508" s="7">
+        <v>8186</v>
+      </c>
+      <c r="I508" s="7">
+        <v>36049</v>
+      </c>
+      <c r="K508" s="7">
+        <v>249</v>
+      </c>
+      <c r="L508" s="7">
+        <v>370</v>
+      </c>
+      <c r="M508" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>50</v>
+      </c>
+      <c r="C509" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_115</v>
+      </c>
+      <c r="E509">
+        <v>115</v>
+      </c>
+      <c r="F509" s="3">
+        <v>2</v>
+      </c>
+      <c r="G509" s="7">
+        <v>33</v>
+      </c>
+      <c r="H509" s="7">
+        <v>9016</v>
+      </c>
+      <c r="I509" s="7">
+        <v>46259</v>
+      </c>
+      <c r="K509" s="7">
+        <v>274</v>
+      </c>
+      <c r="L509" s="7">
+        <v>325</v>
+      </c>
+      <c r="M509" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>50</v>
+      </c>
+      <c r="C510" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_115</v>
+      </c>
+      <c r="E510">
+        <v>115</v>
+      </c>
+      <c r="F510" s="3">
+        <v>2</v>
+      </c>
+      <c r="G510" s="7">
+        <v>38</v>
+      </c>
+      <c r="H510" s="7">
+        <v>9544</v>
+      </c>
+      <c r="I510" s="7">
+        <v>54830</v>
+      </c>
+      <c r="K510" s="7">
+        <v>292</v>
+      </c>
+      <c r="L510" s="7">
+        <v>285</v>
+      </c>
+      <c r="M510" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>50</v>
+      </c>
+      <c r="C511" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_120</v>
+      </c>
+      <c r="E511">
+        <v>120</v>
+      </c>
+      <c r="F511" s="3">
+        <v>2</v>
+      </c>
+      <c r="G511" s="7">
+        <v>8</v>
+      </c>
+      <c r="H511" s="7">
+        <v>1515</v>
+      </c>
+      <c r="I511" s="7">
+        <v>2007</v>
+      </c>
+      <c r="K511" s="7">
+        <v>79</v>
+      </c>
+      <c r="L511" s="7">
+        <v>370</v>
+      </c>
+      <c r="M511" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>50</v>
+      </c>
+      <c r="C512" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_120</v>
+      </c>
+      <c r="E512">
+        <v>120</v>
+      </c>
+      <c r="F512" s="3">
+        <v>2</v>
+      </c>
+      <c r="G512" s="7">
+        <v>13</v>
+      </c>
+      <c r="H512" s="7">
+        <v>3557</v>
+      </c>
+      <c r="I512" s="7">
+        <v>7456</v>
+      </c>
+      <c r="K512" s="7">
+        <v>136</v>
+      </c>
+      <c r="L512" s="7">
+        <v>370</v>
+      </c>
+      <c r="M512" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>50</v>
+      </c>
+      <c r="C513" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_120</v>
+      </c>
+      <c r="E513">
+        <v>120</v>
+      </c>
+      <c r="F513" s="3">
+        <v>2</v>
+      </c>
+      <c r="G513" s="7">
+        <v>18</v>
+      </c>
+      <c r="H513" s="7">
+        <v>5654</v>
+      </c>
+      <c r="I513" s="7">
+        <v>16776</v>
+      </c>
+      <c r="K513" s="7">
+        <v>188</v>
+      </c>
+      <c r="L513" s="7">
+        <v>370</v>
+      </c>
+      <c r="M513" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>50</v>
+      </c>
+      <c r="C514" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_120</v>
+      </c>
+      <c r="E514">
+        <v>120</v>
+      </c>
+      <c r="F514" s="3">
+        <v>2</v>
+      </c>
+      <c r="G514" s="7">
+        <v>23</v>
+      </c>
+      <c r="H514" s="7">
+        <v>7326</v>
+      </c>
+      <c r="I514" s="7">
+        <v>28223</v>
+      </c>
+      <c r="K514" s="7">
+        <v>230</v>
+      </c>
+      <c r="L514" s="7">
+        <v>370</v>
+      </c>
+      <c r="M514" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>50</v>
+      </c>
+      <c r="C515" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_120</v>
+      </c>
+      <c r="E515">
+        <v>120</v>
+      </c>
+      <c r="F515" s="3">
+        <v>2</v>
+      </c>
+      <c r="G515" s="7">
+        <v>28</v>
+      </c>
+      <c r="H515" s="7">
+        <v>8488</v>
+      </c>
+      <c r="I515" s="7">
+        <v>39701</v>
+      </c>
+      <c r="K515" s="7">
+        <v>263</v>
+      </c>
+      <c r="L515" s="7">
+        <v>344</v>
+      </c>
+      <c r="M515" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>50</v>
+      </c>
+      <c r="C516" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_120</v>
+      </c>
+      <c r="E516">
+        <v>120</v>
+      </c>
+      <c r="F516" s="3">
+        <v>2</v>
+      </c>
+      <c r="G516" s="7">
+        <v>33</v>
+      </c>
+      <c r="H516" s="7">
+        <v>9235</v>
+      </c>
+      <c r="I516" s="7">
+        <v>49816</v>
+      </c>
+      <c r="K516" s="7">
+        <v>286</v>
+      </c>
+      <c r="L516" s="7">
+        <v>295</v>
+      </c>
+      <c r="M516" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>50</v>
+      </c>
+      <c r="C517" t="str">
+        <f t="shared" si="17"/>
+        <v>SMC_2016_SI50_120</v>
+      </c>
+      <c r="E517">
+        <v>120</v>
+      </c>
+      <c r="F517" s="3">
+        <v>2</v>
+      </c>
+      <c r="G517" s="7">
+        <v>38</v>
+      </c>
+      <c r="H517" s="7">
+        <v>9695</v>
+      </c>
+      <c r="I517" s="7">
+        <v>58013</v>
+      </c>
+      <c r="K517" s="7">
+        <v>303</v>
+      </c>
+      <c r="L517" s="7">
+        <v>257</v>
+      </c>
+      <c r="M517" s="7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -17872,6 +19269,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1">
+        <v>300</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N241"/>
   <sheetViews>
@@ -28286,12 +29730,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28371,6 +29815,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ORGANON_yield_analysis/Douglas-fir Yield Tables and Permanent Plots.xlsx
+++ b/ORGANON_yield_analysis/Douglas-fir Yield Tables and Permanent Plots.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="61">
   <si>
     <t>Source</t>
   </si>
@@ -205,6 +205,12 @@
   <si>
     <t>Type I, II</t>
   </si>
+  <si>
+    <t>i+ii</t>
+  </si>
+  <si>
+    <t>i+ii+iii</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +220,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,14 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -259,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -267,9 +265,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -589,11 +584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M517"/>
+  <dimension ref="A1:M560"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A516" sqref="A516:XFD516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16215,7 +16210,7 @@
         <v>36</v>
       </c>
       <c r="C432" t="str">
-        <f t="shared" ref="C432:C495" si="15">IF(ISBLANK(B432),A432,A432&amp;"_"&amp;B432)&amp;IF(ISBLANK(D432),"_SI50_"&amp;E432,"_SI100_"&amp;D432)</f>
+        <f t="shared" ref="C432:C494" si="15">IF(ISBLANK(B432),A432,A432&amp;"_"&amp;B432)&amp;IF(ISBLANK(D432),"_SI50_"&amp;E432,"_SI100_"&amp;D432)</f>
         <v>Curtis_et_al_1982_planted_SI50_85</v>
       </c>
       <c r="E432" s="3">
@@ -18320,31 +18315,48 @@
       <c r="A489" t="s">
         <v>50</v>
       </c>
+      <c r="B489" t="s">
+        <v>59</v>
+      </c>
       <c r="C489" t="str">
         <f t="shared" si="15"/>
-        <v>SMC_2016_SI50_106</v>
-      </c>
-      <c r="E489" s="3">
+        <v>SMC_2016_i+ii_SI50_106</v>
+      </c>
+      <c r="E489">
         <v>106</v>
       </c>
       <c r="F489" s="3">
         <v>3</v>
       </c>
-      <c r="G489" s="6"/>
-      <c r="H489" s="6"/>
-      <c r="I489" s="6"/>
-      <c r="J489" s="6"/>
-      <c r="K489" s="6"/>
-      <c r="L489" s="6"/>
-      <c r="M489" s="6"/>
+      <c r="G489" s="6">
+        <v>8</v>
+      </c>
+      <c r="H489" s="6">
+        <v>933</v>
+      </c>
+      <c r="I489" s="6">
+        <v>947</v>
+      </c>
+      <c r="K489" s="6">
+        <v>57</v>
+      </c>
+      <c r="L489" s="6">
+        <v>370</v>
+      </c>
+      <c r="M489" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>50</v>
       </c>
+      <c r="B490" t="s">
+        <v>59</v>
+      </c>
       <c r="C490" t="str">
         <f t="shared" si="15"/>
-        <v>SMC_2016_SI50_106</v>
+        <v>SMC_2016_i+ii_SI50_106</v>
       </c>
       <c r="E490">
         <v>106</v>
@@ -18352,32 +18364,35 @@
       <c r="F490" s="3">
         <v>3</v>
       </c>
-      <c r="G490" s="7">
-        <v>8</v>
-      </c>
-      <c r="H490" s="7">
-        <v>933</v>
-      </c>
-      <c r="I490" s="7">
-        <v>947</v>
-      </c>
-      <c r="K490" s="7">
-        <v>57</v>
-      </c>
-      <c r="L490" s="7">
+      <c r="G490" s="6">
+        <v>13</v>
+      </c>
+      <c r="H490" s="6">
+        <v>2512</v>
+      </c>
+      <c r="I490" s="6">
+        <v>4069</v>
+      </c>
+      <c r="K490" s="6">
+        <v>103</v>
+      </c>
+      <c r="L490" s="6">
         <v>370</v>
       </c>
-      <c r="M490" s="7">
-        <v>4</v>
+      <c r="M490" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>50</v>
       </c>
+      <c r="B491" t="s">
+        <v>59</v>
+      </c>
       <c r="C491" t="str">
         <f t="shared" si="15"/>
-        <v>SMC_2016_SI50_106</v>
+        <v>SMC_2016_i+ii_SI50_106</v>
       </c>
       <c r="E491">
         <v>106</v>
@@ -18385,32 +18400,35 @@
       <c r="F491" s="3">
         <v>3</v>
       </c>
-      <c r="G491" s="7">
-        <v>13</v>
-      </c>
-      <c r="H491" s="7">
-        <v>2512</v>
-      </c>
-      <c r="I491" s="7">
-        <v>4069</v>
-      </c>
-      <c r="K491" s="7">
-        <v>103</v>
-      </c>
-      <c r="L491" s="7">
+      <c r="G491" s="6">
+        <v>18</v>
+      </c>
+      <c r="H491" s="6">
+        <v>4425</v>
+      </c>
+      <c r="I491" s="6">
+        <v>10345</v>
+      </c>
+      <c r="K491" s="6">
+        <v>149</v>
+      </c>
+      <c r="L491" s="6">
         <v>370</v>
       </c>
-      <c r="M491" s="7">
-        <v>5</v>
+      <c r="M491" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>50</v>
       </c>
+      <c r="B492" t="s">
+        <v>59</v>
+      </c>
       <c r="C492" t="str">
         <f t="shared" si="15"/>
-        <v>SMC_2016_SI50_106</v>
+        <v>SMC_2016_i+ii_SI50_106</v>
       </c>
       <c r="E492">
         <v>106</v>
@@ -18418,32 +18436,35 @@
       <c r="F492" s="3">
         <v>3</v>
       </c>
-      <c r="G492" s="7">
-        <v>18</v>
-      </c>
-      <c r="H492" s="7">
-        <v>4425</v>
-      </c>
-      <c r="I492" s="7">
-        <v>10345</v>
-      </c>
-      <c r="K492" s="7">
-        <v>149</v>
-      </c>
-      <c r="L492" s="7">
+      <c r="G492" s="6">
+        <v>23</v>
+      </c>
+      <c r="H492" s="6">
+        <v>6180</v>
+      </c>
+      <c r="I492" s="6">
+        <v>19253</v>
+      </c>
+      <c r="K492" s="6">
+        <v>190</v>
+      </c>
+      <c r="L492" s="6">
         <v>370</v>
       </c>
-      <c r="M492" s="7">
-        <v>7</v>
+      <c r="M492" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>50</v>
       </c>
+      <c r="B493" t="s">
+        <v>59</v>
+      </c>
       <c r="C493" t="str">
         <f t="shared" si="15"/>
-        <v>SMC_2016_SI50_106</v>
+        <v>SMC_2016_i+ii_SI50_106</v>
       </c>
       <c r="E493">
         <v>106</v>
@@ -18451,32 +18472,35 @@
       <c r="F493" s="3">
         <v>3</v>
       </c>
-      <c r="G493" s="7">
-        <v>23</v>
-      </c>
-      <c r="H493" s="7">
-        <v>6180</v>
-      </c>
-      <c r="I493" s="7">
-        <v>19253</v>
-      </c>
-      <c r="K493" s="7">
-        <v>190</v>
-      </c>
-      <c r="L493" s="7">
+      <c r="G493" s="6">
+        <v>28</v>
+      </c>
+      <c r="H493" s="6">
+        <v>7555</v>
+      </c>
+      <c r="I493" s="6">
+        <v>29409</v>
+      </c>
+      <c r="K493" s="6">
+        <v>224</v>
+      </c>
+      <c r="L493" s="6">
         <v>370</v>
       </c>
-      <c r="M493" s="7">
-        <v>8</v>
+      <c r="M493" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>50</v>
       </c>
+      <c r="B494" t="s">
+        <v>59</v>
+      </c>
       <c r="C494" t="str">
         <f t="shared" si="15"/>
-        <v>SMC_2016_SI50_106</v>
+        <v>SMC_2016_i+ii_SI50_106</v>
       </c>
       <c r="E494">
         <v>106</v>
@@ -18484,32 +18508,35 @@
       <c r="F494" s="3">
         <v>3</v>
       </c>
-      <c r="G494" s="7">
-        <v>28</v>
-      </c>
-      <c r="H494" s="7">
-        <v>7555</v>
-      </c>
-      <c r="I494" s="7">
-        <v>29409</v>
-      </c>
-      <c r="K494" s="7">
-        <v>224</v>
-      </c>
-      <c r="L494" s="7">
+      <c r="G494" s="6">
+        <v>33</v>
+      </c>
+      <c r="H494" s="6">
+        <v>8536</v>
+      </c>
+      <c r="I494" s="6">
+        <v>39436</v>
+      </c>
+      <c r="K494" s="6">
+        <v>250</v>
+      </c>
+      <c r="L494" s="6">
         <v>370</v>
       </c>
-      <c r="M494" s="7">
-        <v>10</v>
+      <c r="M494" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>50</v>
       </c>
+      <c r="B495" t="s">
+        <v>59</v>
+      </c>
       <c r="C495" t="str">
-        <f t="shared" si="15"/>
-        <v>SMC_2016_SI50_106</v>
+        <f t="shared" ref="C495:C517" si="17">IF(ISBLANK(B495),A495,A495&amp;"_"&amp;B495)&amp;IF(ISBLANK(D495),"_SI50_"&amp;E495,"_SI100_"&amp;D495)</f>
+        <v>SMC_2016_i+ii_SI50_106</v>
       </c>
       <c r="E495">
         <v>106</v>
@@ -18517,65 +18544,71 @@
       <c r="F495" s="3">
         <v>3</v>
       </c>
-      <c r="G495" s="7">
-        <v>33</v>
-      </c>
-      <c r="H495" s="7">
-        <v>8536</v>
-      </c>
-      <c r="I495" s="7">
-        <v>39436</v>
-      </c>
-      <c r="K495" s="7">
-        <v>250</v>
-      </c>
-      <c r="L495" s="7">
-        <v>370</v>
-      </c>
-      <c r="M495" s="7">
-        <v>11</v>
+      <c r="G495" s="6">
+        <v>38</v>
+      </c>
+      <c r="H495" s="6">
+        <v>9197</v>
+      </c>
+      <c r="I495" s="6">
+        <v>48425</v>
+      </c>
+      <c r="K495" s="6">
+        <v>269</v>
+      </c>
+      <c r="L495" s="6">
+        <v>338</v>
+      </c>
+      <c r="M495" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>50</v>
       </c>
+      <c r="B496" t="s">
+        <v>59</v>
+      </c>
       <c r="C496" t="str">
-        <f t="shared" ref="C496:C517" si="17">IF(ISBLANK(B496),A496,A496&amp;"_"&amp;B496)&amp;IF(ISBLANK(D496),"_SI50_"&amp;E496,"_SI100_"&amp;D496)</f>
-        <v>SMC_2016_SI50_106</v>
+        <f t="shared" si="17"/>
+        <v>SMC_2016_i+ii_SI50_110</v>
       </c>
       <c r="E496">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F496" s="3">
         <v>3</v>
       </c>
-      <c r="G496" s="7">
-        <v>38</v>
-      </c>
-      <c r="H496" s="7">
-        <v>9197</v>
-      </c>
-      <c r="I496" s="7">
-        <v>48425</v>
-      </c>
-      <c r="K496" s="7">
-        <v>269</v>
-      </c>
-      <c r="L496" s="7">
-        <v>338</v>
-      </c>
-      <c r="M496" s="7">
-        <v>12</v>
+      <c r="G496" s="6">
+        <v>8</v>
+      </c>
+      <c r="H496" s="6">
+        <v>1078</v>
+      </c>
+      <c r="I496" s="6">
+        <v>1182</v>
+      </c>
+      <c r="K496" s="6">
+        <v>63</v>
+      </c>
+      <c r="L496" s="6">
+        <v>370</v>
+      </c>
+      <c r="M496" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>50</v>
       </c>
+      <c r="B497" t="s">
+        <v>59</v>
+      </c>
       <c r="C497" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_110</v>
+        <v>SMC_2016_i+ii_SI50_110</v>
       </c>
       <c r="E497">
         <v>110</v>
@@ -18583,32 +18616,35 @@
       <c r="F497" s="3">
         <v>3</v>
       </c>
-      <c r="G497" s="7">
-        <v>8</v>
-      </c>
-      <c r="H497" s="7">
-        <v>1078</v>
-      </c>
-      <c r="I497" s="7">
-        <v>1182</v>
-      </c>
-      <c r="K497" s="7">
-        <v>63</v>
-      </c>
-      <c r="L497" s="7">
+      <c r="G497" s="6">
+        <v>13</v>
+      </c>
+      <c r="H497" s="6">
+        <v>2791</v>
+      </c>
+      <c r="I497" s="6">
+        <v>4876</v>
+      </c>
+      <c r="K497" s="6">
+        <v>112</v>
+      </c>
+      <c r="L497" s="6">
         <v>370</v>
       </c>
-      <c r="M497" s="7">
-        <v>4</v>
+      <c r="M497" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>50</v>
       </c>
+      <c r="B498" t="s">
+        <v>59</v>
+      </c>
       <c r="C498" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_110</v>
+        <v>SMC_2016_i+ii_SI50_110</v>
       </c>
       <c r="E498">
         <v>110</v>
@@ -18616,32 +18652,35 @@
       <c r="F498" s="3">
         <v>3</v>
       </c>
-      <c r="G498" s="7">
-        <v>13</v>
-      </c>
-      <c r="H498" s="7">
-        <v>2791</v>
-      </c>
-      <c r="I498" s="7">
-        <v>4876</v>
-      </c>
-      <c r="K498" s="7">
-        <v>112</v>
-      </c>
-      <c r="L498" s="7">
+      <c r="G498" s="6">
+        <v>18</v>
+      </c>
+      <c r="H498" s="6">
+        <v>4772</v>
+      </c>
+      <c r="I498" s="6">
+        <v>11974</v>
+      </c>
+      <c r="K498" s="6">
+        <v>160</v>
+      </c>
+      <c r="L498" s="6">
         <v>370</v>
       </c>
-      <c r="M498" s="7">
-        <v>6</v>
+      <c r="M498" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>50</v>
       </c>
+      <c r="B499" t="s">
+        <v>59</v>
+      </c>
       <c r="C499" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_110</v>
+        <v>SMC_2016_i+ii_SI50_110</v>
       </c>
       <c r="E499">
         <v>110</v>
@@ -18649,32 +18688,35 @@
       <c r="F499" s="3">
         <v>3</v>
       </c>
-      <c r="G499" s="7">
-        <v>18</v>
-      </c>
-      <c r="H499" s="7">
-        <v>4772</v>
-      </c>
-      <c r="I499" s="7">
-        <v>11974</v>
-      </c>
-      <c r="K499" s="7">
-        <v>160</v>
-      </c>
-      <c r="L499" s="7">
+      <c r="G499" s="6">
+        <v>23</v>
+      </c>
+      <c r="H499" s="6">
+        <v>6520</v>
+      </c>
+      <c r="I499" s="6">
+        <v>21647</v>
+      </c>
+      <c r="K499" s="6">
+        <v>202</v>
+      </c>
+      <c r="L499" s="6">
         <v>370</v>
       </c>
-      <c r="M499" s="7">
-        <v>7</v>
+      <c r="M499" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>50</v>
       </c>
+      <c r="B500" t="s">
+        <v>59</v>
+      </c>
       <c r="C500" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_110</v>
+        <v>SMC_2016_i+ii_SI50_110</v>
       </c>
       <c r="E500">
         <v>110</v>
@@ -18682,32 +18724,35 @@
       <c r="F500" s="3">
         <v>3</v>
       </c>
-      <c r="G500" s="7">
-        <v>23</v>
-      </c>
-      <c r="H500" s="7">
-        <v>6520</v>
-      </c>
-      <c r="I500" s="7">
-        <v>21647</v>
-      </c>
-      <c r="K500" s="7">
-        <v>202</v>
-      </c>
-      <c r="L500" s="7">
+      <c r="G500" s="6">
+        <v>28</v>
+      </c>
+      <c r="H500" s="6">
+        <v>7842</v>
+      </c>
+      <c r="I500" s="6">
+        <v>32281</v>
+      </c>
+      <c r="K500" s="6">
+        <v>235</v>
+      </c>
+      <c r="L500" s="6">
         <v>370</v>
       </c>
-      <c r="M500" s="7">
-        <v>9</v>
+      <c r="M500" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>50</v>
       </c>
+      <c r="B501" t="s">
+        <v>59</v>
+      </c>
       <c r="C501" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_110</v>
+        <v>SMC_2016_i+ii_SI50_110</v>
       </c>
       <c r="E501">
         <v>110</v>
@@ -18715,32 +18760,35 @@
       <c r="F501" s="3">
         <v>3</v>
       </c>
-      <c r="G501" s="7">
-        <v>28</v>
-      </c>
-      <c r="H501" s="7">
-        <v>7842</v>
-      </c>
-      <c r="I501" s="7">
-        <v>32281</v>
-      </c>
-      <c r="K501" s="7">
-        <v>235</v>
-      </c>
-      <c r="L501" s="7">
-        <v>370</v>
-      </c>
-      <c r="M501" s="7">
-        <v>10</v>
+      <c r="G501" s="6">
+        <v>33</v>
+      </c>
+      <c r="H501" s="6">
+        <v>8758</v>
+      </c>
+      <c r="I501" s="6">
+        <v>42447</v>
+      </c>
+      <c r="K501" s="6">
+        <v>260</v>
+      </c>
+      <c r="L501" s="6">
+        <v>357</v>
+      </c>
+      <c r="M501" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>50</v>
       </c>
+      <c r="B502" t="s">
+        <v>59</v>
+      </c>
       <c r="C502" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_110</v>
+        <v>SMC_2016_i+ii_SI50_110</v>
       </c>
       <c r="E502">
         <v>110</v>
@@ -18748,65 +18796,71 @@
       <c r="F502" s="3">
         <v>3</v>
       </c>
-      <c r="G502" s="7">
-        <v>33</v>
-      </c>
-      <c r="H502" s="7">
-        <v>8758</v>
-      </c>
-      <c r="I502" s="7">
-        <v>42447</v>
-      </c>
-      <c r="K502" s="7">
-        <v>260</v>
-      </c>
-      <c r="L502" s="7">
-        <v>357</v>
-      </c>
-      <c r="M502" s="7">
-        <v>12</v>
+      <c r="G502" s="6">
+        <v>38</v>
+      </c>
+      <c r="H502" s="6">
+        <v>9360</v>
+      </c>
+      <c r="I502" s="6">
+        <v>51300</v>
+      </c>
+      <c r="K502" s="6">
+        <v>279</v>
+      </c>
+      <c r="L502" s="6">
+        <v>314</v>
+      </c>
+      <c r="M502" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>50</v>
       </c>
+      <c r="B503" t="s">
+        <v>59</v>
+      </c>
       <c r="C503" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_110</v>
+        <v>SMC_2016_i+ii_SI50_115</v>
       </c>
       <c r="E503">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F503" s="3">
-        <v>3</v>
-      </c>
-      <c r="G503" s="7">
-        <v>38</v>
-      </c>
-      <c r="H503" s="7">
-        <v>9360</v>
-      </c>
-      <c r="I503" s="7">
-        <v>51300</v>
-      </c>
-      <c r="K503" s="7">
-        <v>279</v>
-      </c>
-      <c r="L503" s="7">
-        <v>314</v>
-      </c>
-      <c r="M503" s="7">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="G503" s="6">
+        <v>8</v>
+      </c>
+      <c r="H503" s="6">
+        <v>1288</v>
+      </c>
+      <c r="I503" s="6">
+        <v>1557</v>
+      </c>
+      <c r="K503" s="6">
+        <v>71</v>
+      </c>
+      <c r="L503" s="6">
+        <v>370</v>
+      </c>
+      <c r="M503" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>50</v>
       </c>
+      <c r="B504" t="s">
+        <v>59</v>
+      </c>
       <c r="C504" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_115</v>
+        <v>SMC_2016_i+ii_SI50_115</v>
       </c>
       <c r="E504">
         <v>115</v>
@@ -18814,32 +18868,35 @@
       <c r="F504" s="3">
         <v>2</v>
       </c>
-      <c r="G504" s="7">
-        <v>8</v>
-      </c>
-      <c r="H504" s="7">
-        <v>1288</v>
-      </c>
-      <c r="I504" s="7">
-        <v>1557</v>
-      </c>
-      <c r="K504" s="7">
-        <v>71</v>
-      </c>
-      <c r="L504" s="7">
+      <c r="G504" s="6">
+        <v>13</v>
+      </c>
+      <c r="H504" s="6">
+        <v>3172</v>
+      </c>
+      <c r="I504" s="6">
+        <v>6089</v>
+      </c>
+      <c r="K504" s="6">
+        <v>124</v>
+      </c>
+      <c r="L504" s="6">
         <v>370</v>
       </c>
-      <c r="M504" s="7">
-        <v>4</v>
+      <c r="M504" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>50</v>
       </c>
+      <c r="B505" t="s">
+        <v>59</v>
+      </c>
       <c r="C505" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_115</v>
+        <v>SMC_2016_i+ii_SI50_115</v>
       </c>
       <c r="E505">
         <v>115</v>
@@ -18847,32 +18904,35 @@
       <c r="F505" s="3">
         <v>2</v>
       </c>
-      <c r="G505" s="7">
-        <v>13</v>
-      </c>
-      <c r="H505" s="7">
-        <v>3172</v>
-      </c>
-      <c r="I505" s="7">
-        <v>6089</v>
-      </c>
-      <c r="K505" s="7">
-        <v>124</v>
-      </c>
-      <c r="L505" s="7">
+      <c r="G505" s="6">
+        <v>18</v>
+      </c>
+      <c r="H505" s="6">
+        <v>5223</v>
+      </c>
+      <c r="I505" s="6">
+        <v>14300</v>
+      </c>
+      <c r="K505" s="6">
+        <v>174</v>
+      </c>
+      <c r="L505" s="6">
         <v>370</v>
       </c>
-      <c r="M505" s="7">
-        <v>6</v>
+      <c r="M505" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>50</v>
       </c>
+      <c r="B506" t="s">
+        <v>59</v>
+      </c>
       <c r="C506" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_115</v>
+        <v>SMC_2016_i+ii_SI50_115</v>
       </c>
       <c r="E506">
         <v>115</v>
@@ -18880,32 +18940,35 @@
       <c r="F506" s="3">
         <v>2</v>
       </c>
-      <c r="G506" s="7">
-        <v>18</v>
-      </c>
-      <c r="H506" s="7">
-        <v>5223</v>
-      </c>
-      <c r="I506" s="7">
-        <v>14300</v>
-      </c>
-      <c r="K506" s="7">
-        <v>174</v>
-      </c>
-      <c r="L506" s="7">
+      <c r="G506" s="6">
+        <v>23</v>
+      </c>
+      <c r="H506" s="6">
+        <v>6941</v>
+      </c>
+      <c r="I506" s="6">
+        <v>24915</v>
+      </c>
+      <c r="K506" s="6">
+        <v>216</v>
+      </c>
+      <c r="L506" s="6">
         <v>370</v>
       </c>
-      <c r="M506" s="7">
-        <v>8</v>
+      <c r="M506" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>50</v>
       </c>
+      <c r="B507" t="s">
+        <v>59</v>
+      </c>
       <c r="C507" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_115</v>
+        <v>SMC_2016_i+ii_SI50_115</v>
       </c>
       <c r="E507">
         <v>115</v>
@@ -18913,32 +18976,35 @@
       <c r="F507" s="3">
         <v>2</v>
       </c>
-      <c r="G507" s="7">
-        <v>23</v>
-      </c>
-      <c r="H507" s="7">
-        <v>6941</v>
-      </c>
-      <c r="I507" s="7">
-        <v>24915</v>
-      </c>
-      <c r="K507" s="7">
-        <v>216</v>
-      </c>
-      <c r="L507" s="7">
+      <c r="G507" s="6">
+        <v>28</v>
+      </c>
+      <c r="H507" s="6">
+        <v>8186</v>
+      </c>
+      <c r="I507" s="6">
+        <v>36049</v>
+      </c>
+      <c r="K507" s="6">
+        <v>249</v>
+      </c>
+      <c r="L507" s="6">
         <v>370</v>
       </c>
-      <c r="M507" s="7">
-        <v>9</v>
+      <c r="M507" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>50</v>
       </c>
+      <c r="B508" t="s">
+        <v>59</v>
+      </c>
       <c r="C508" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_115</v>
+        <v>SMC_2016_i+ii_SI50_115</v>
       </c>
       <c r="E508">
         <v>115</v>
@@ -18946,32 +19012,35 @@
       <c r="F508" s="3">
         <v>2</v>
       </c>
-      <c r="G508" s="7">
-        <v>28</v>
-      </c>
-      <c r="H508" s="7">
-        <v>8186</v>
-      </c>
-      <c r="I508" s="7">
-        <v>36049</v>
-      </c>
-      <c r="K508" s="7">
-        <v>249</v>
-      </c>
-      <c r="L508" s="7">
-        <v>370</v>
-      </c>
-      <c r="M508" s="7">
-        <v>11</v>
+      <c r="G508" s="6">
+        <v>33</v>
+      </c>
+      <c r="H508" s="6">
+        <v>9016</v>
+      </c>
+      <c r="I508" s="6">
+        <v>46259</v>
+      </c>
+      <c r="K508" s="6">
+        <v>274</v>
+      </c>
+      <c r="L508" s="6">
+        <v>325</v>
+      </c>
+      <c r="M508" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>50</v>
       </c>
+      <c r="B509" t="s">
+        <v>59</v>
+      </c>
       <c r="C509" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_115</v>
+        <v>SMC_2016_i+ii_SI50_115</v>
       </c>
       <c r="E509">
         <v>115</v>
@@ -18979,65 +19048,71 @@
       <c r="F509" s="3">
         <v>2</v>
       </c>
-      <c r="G509" s="7">
-        <v>33</v>
-      </c>
-      <c r="H509" s="7">
-        <v>9016</v>
-      </c>
-      <c r="I509" s="7">
-        <v>46259</v>
-      </c>
-      <c r="K509" s="7">
-        <v>274</v>
-      </c>
-      <c r="L509" s="7">
-        <v>325</v>
-      </c>
-      <c r="M509" s="7">
-        <v>12</v>
+      <c r="G509" s="6">
+        <v>38</v>
+      </c>
+      <c r="H509" s="6">
+        <v>9544</v>
+      </c>
+      <c r="I509" s="6">
+        <v>54830</v>
+      </c>
+      <c r="K509" s="6">
+        <v>292</v>
+      </c>
+      <c r="L509" s="6">
+        <v>285</v>
+      </c>
+      <c r="M509" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>50</v>
       </c>
+      <c r="B510" t="s">
+        <v>59</v>
+      </c>
       <c r="C510" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_115</v>
+        <v>SMC_2016_i+ii_SI50_120</v>
       </c>
       <c r="E510">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F510" s="3">
         <v>2</v>
       </c>
-      <c r="G510" s="7">
-        <v>38</v>
-      </c>
-      <c r="H510" s="7">
-        <v>9544</v>
-      </c>
-      <c r="I510" s="7">
-        <v>54830</v>
-      </c>
-      <c r="K510" s="7">
-        <v>292</v>
-      </c>
-      <c r="L510" s="7">
-        <v>285</v>
-      </c>
-      <c r="M510" s="7">
-        <v>14</v>
+      <c r="G510" s="6">
+        <v>8</v>
+      </c>
+      <c r="H510" s="6">
+        <v>1515</v>
+      </c>
+      <c r="I510" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K510" s="6">
+        <v>79</v>
+      </c>
+      <c r="L510" s="6">
+        <v>370</v>
+      </c>
+      <c r="M510" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>50</v>
       </c>
+      <c r="B511" t="s">
+        <v>59</v>
+      </c>
       <c r="C511" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_120</v>
+        <v>SMC_2016_i+ii_SI50_120</v>
       </c>
       <c r="E511">
         <v>120</v>
@@ -19045,32 +19120,35 @@
       <c r="F511" s="3">
         <v>2</v>
       </c>
-      <c r="G511" s="7">
-        <v>8</v>
-      </c>
-      <c r="H511" s="7">
-        <v>1515</v>
-      </c>
-      <c r="I511" s="7">
-        <v>2007</v>
-      </c>
-      <c r="K511" s="7">
-        <v>79</v>
-      </c>
-      <c r="L511" s="7">
+      <c r="G511" s="6">
+        <v>13</v>
+      </c>
+      <c r="H511" s="6">
+        <v>3557</v>
+      </c>
+      <c r="I511" s="6">
+        <v>7456</v>
+      </c>
+      <c r="K511" s="6">
+        <v>136</v>
+      </c>
+      <c r="L511" s="6">
         <v>370</v>
       </c>
-      <c r="M511" s="7">
-        <v>5</v>
+      <c r="M511" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>50</v>
       </c>
+      <c r="B512" t="s">
+        <v>59</v>
+      </c>
       <c r="C512" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_120</v>
+        <v>SMC_2016_i+ii_SI50_120</v>
       </c>
       <c r="E512">
         <v>120</v>
@@ -19078,32 +19156,35 @@
       <c r="F512" s="3">
         <v>2</v>
       </c>
-      <c r="G512" s="7">
-        <v>13</v>
-      </c>
-      <c r="H512" s="7">
-        <v>3557</v>
-      </c>
-      <c r="I512" s="7">
-        <v>7456</v>
-      </c>
-      <c r="K512" s="7">
-        <v>136</v>
-      </c>
-      <c r="L512" s="7">
+      <c r="G512" s="6">
+        <v>18</v>
+      </c>
+      <c r="H512" s="6">
+        <v>5654</v>
+      </c>
+      <c r="I512" s="6">
+        <v>16776</v>
+      </c>
+      <c r="K512" s="6">
+        <v>188</v>
+      </c>
+      <c r="L512" s="6">
         <v>370</v>
       </c>
-      <c r="M512" s="7">
-        <v>7</v>
+      <c r="M512" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>50</v>
       </c>
+      <c r="B513" t="s">
+        <v>59</v>
+      </c>
       <c r="C513" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_120</v>
+        <v>SMC_2016_i+ii_SI50_120</v>
       </c>
       <c r="E513">
         <v>120</v>
@@ -19111,32 +19192,35 @@
       <c r="F513" s="3">
         <v>2</v>
       </c>
-      <c r="G513" s="7">
-        <v>18</v>
-      </c>
-      <c r="H513" s="7">
-        <v>5654</v>
-      </c>
-      <c r="I513" s="7">
-        <v>16776</v>
-      </c>
-      <c r="K513" s="7">
-        <v>188</v>
-      </c>
-      <c r="L513" s="7">
+      <c r="G513" s="6">
+        <v>23</v>
+      </c>
+      <c r="H513" s="6">
+        <v>7326</v>
+      </c>
+      <c r="I513" s="6">
+        <v>28223</v>
+      </c>
+      <c r="K513" s="6">
+        <v>230</v>
+      </c>
+      <c r="L513" s="6">
         <v>370</v>
       </c>
-      <c r="M513" s="7">
-        <v>8</v>
+      <c r="M513" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>50</v>
       </c>
+      <c r="B514" t="s">
+        <v>59</v>
+      </c>
       <c r="C514" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_120</v>
+        <v>SMC_2016_i+ii_SI50_120</v>
       </c>
       <c r="E514">
         <v>120</v>
@@ -19144,32 +19228,35 @@
       <c r="F514" s="3">
         <v>2</v>
       </c>
-      <c r="G514" s="7">
-        <v>23</v>
-      </c>
-      <c r="H514" s="7">
-        <v>7326</v>
-      </c>
-      <c r="I514" s="7">
-        <v>28223</v>
-      </c>
-      <c r="K514" s="7">
-        <v>230</v>
-      </c>
-      <c r="L514" s="7">
-        <v>370</v>
-      </c>
-      <c r="M514" s="7">
-        <v>10</v>
+      <c r="G514" s="6">
+        <v>28</v>
+      </c>
+      <c r="H514" s="6">
+        <v>8488</v>
+      </c>
+      <c r="I514" s="6">
+        <v>39701</v>
+      </c>
+      <c r="K514" s="6">
+        <v>263</v>
+      </c>
+      <c r="L514" s="6">
+        <v>344</v>
+      </c>
+      <c r="M514" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>50</v>
       </c>
+      <c r="B515" t="s">
+        <v>59</v>
+      </c>
       <c r="C515" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_120</v>
+        <v>SMC_2016_i+ii_SI50_120</v>
       </c>
       <c r="E515">
         <v>120</v>
@@ -19177,32 +19264,35 @@
       <c r="F515" s="3">
         <v>2</v>
       </c>
-      <c r="G515" s="7">
-        <v>28</v>
-      </c>
-      <c r="H515" s="7">
-        <v>8488</v>
-      </c>
-      <c r="I515" s="7">
-        <v>39701</v>
-      </c>
-      <c r="K515" s="7">
-        <v>263</v>
-      </c>
-      <c r="L515" s="7">
-        <v>344</v>
-      </c>
-      <c r="M515" s="7">
-        <v>12</v>
+      <c r="G515" s="6">
+        <v>33</v>
+      </c>
+      <c r="H515" s="6">
+        <v>9235</v>
+      </c>
+      <c r="I515" s="6">
+        <v>49816</v>
+      </c>
+      <c r="K515" s="6">
+        <v>286</v>
+      </c>
+      <c r="L515" s="6">
+        <v>295</v>
+      </c>
+      <c r="M515" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>50</v>
       </c>
+      <c r="B516" t="s">
+        <v>59</v>
+      </c>
       <c r="C516" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_120</v>
+        <v>SMC_2016_i+ii_SI50_120</v>
       </c>
       <c r="E516">
         <v>120</v>
@@ -19210,56 +19300,1211 @@
       <c r="F516" s="3">
         <v>2</v>
       </c>
-      <c r="G516" s="7">
-        <v>33</v>
-      </c>
-      <c r="H516" s="7">
-        <v>9235</v>
-      </c>
-      <c r="I516" s="7">
-        <v>49816</v>
-      </c>
-      <c r="K516" s="7">
-        <v>286</v>
-      </c>
-      <c r="L516" s="7">
-        <v>295</v>
-      </c>
-      <c r="M516" s="7">
-        <v>13</v>
+      <c r="G516" s="6">
+        <v>38</v>
+      </c>
+      <c r="H516" s="6">
+        <v>9695</v>
+      </c>
+      <c r="I516" s="6">
+        <v>58013</v>
+      </c>
+      <c r="K516" s="6">
+        <v>303</v>
+      </c>
+      <c r="L516" s="6">
+        <v>257</v>
+      </c>
+      <c r="M516" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>50</v>
       </c>
+      <c r="B517" t="s">
+        <v>60</v>
+      </c>
       <c r="C517" t="str">
         <f t="shared" si="17"/>
-        <v>SMC_2016_SI50_120</v>
-      </c>
-      <c r="E517">
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E517" s="3">
+        <v>106</v>
+      </c>
+      <c r="F517" s="3">
+        <v>3</v>
+      </c>
+      <c r="G517" s="3">
+        <v>0</v>
+      </c>
+      <c r="H517" s="3">
+        <v>0</v>
+      </c>
+      <c r="I517" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>50</v>
+      </c>
+      <c r="B518" t="s">
+        <v>60</v>
+      </c>
+      <c r="C518" t="str">
+        <f t="shared" ref="C518:C560" si="18">IF(ISBLANK(B518),A518,A518&amp;"_"&amp;B518)&amp;IF(ISBLANK(D518),"_SI50_"&amp;E518,"_SI100_"&amp;D518)</f>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E518" s="3">
+        <v>106</v>
+      </c>
+      <c r="F518" s="3">
+        <v>3</v>
+      </c>
+      <c r="G518" s="3">
+        <v>5</v>
+      </c>
+      <c r="H518" s="3">
+        <v>0</v>
+      </c>
+      <c r="I518" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>50</v>
+      </c>
+      <c r="B519" t="s">
+        <v>60</v>
+      </c>
+      <c r="C519" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E519" s="3">
+        <v>106</v>
+      </c>
+      <c r="F519" s="3">
+        <v>3</v>
+      </c>
+      <c r="G519" s="3">
+        <v>10</v>
+      </c>
+      <c r="H519" s="3">
+        <v>45</v>
+      </c>
+      <c r="I519" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>50</v>
+      </c>
+      <c r="B520" t="s">
+        <v>60</v>
+      </c>
+      <c r="C520" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E520" s="3">
+        <v>106</v>
+      </c>
+      <c r="F520" s="3">
+        <v>3</v>
+      </c>
+      <c r="G520" s="3">
+        <v>15</v>
+      </c>
+      <c r="H520" s="3">
+        <v>396</v>
+      </c>
+      <c r="I520" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>50</v>
+      </c>
+      <c r="B521" t="s">
+        <v>60</v>
+      </c>
+      <c r="C521" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E521" s="3">
+        <v>106</v>
+      </c>
+      <c r="F521" s="3">
+        <v>3</v>
+      </c>
+      <c r="G521" s="3">
+        <v>20</v>
+      </c>
+      <c r="H521" s="3">
+        <v>1299</v>
+      </c>
+      <c r="I521" s="3">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>50</v>
+      </c>
+      <c r="B522" t="s">
+        <v>60</v>
+      </c>
+      <c r="C522" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E522" s="3">
+        <v>106</v>
+      </c>
+      <c r="F522" s="3">
+        <v>3</v>
+      </c>
+      <c r="G522" s="3">
+        <v>25</v>
+      </c>
+      <c r="H522" s="3">
+        <v>2613</v>
+      </c>
+      <c r="I522" s="3">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>50</v>
+      </c>
+      <c r="B523" t="s">
+        <v>60</v>
+      </c>
+      <c r="C523" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E523" s="3">
+        <v>106</v>
+      </c>
+      <c r="F523" s="3">
+        <v>3</v>
+      </c>
+      <c r="G523" s="3">
+        <v>30</v>
+      </c>
+      <c r="H523" s="3">
+        <v>4009</v>
+      </c>
+      <c r="I523" s="3">
+        <v>14213</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>50</v>
+      </c>
+      <c r="B524" t="s">
+        <v>60</v>
+      </c>
+      <c r="C524" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E524" s="3">
+        <v>106</v>
+      </c>
+      <c r="F524" s="3">
+        <v>3</v>
+      </c>
+      <c r="G524" s="3">
+        <v>35</v>
+      </c>
+      <c r="H524" s="3">
+        <v>5241</v>
+      </c>
+      <c r="I524" s="3">
+        <v>23104</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>50</v>
+      </c>
+      <c r="B525" t="s">
+        <v>60</v>
+      </c>
+      <c r="C525" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E525" s="3">
+        <v>106</v>
+      </c>
+      <c r="F525" s="3">
+        <v>3</v>
+      </c>
+      <c r="G525" s="3">
+        <v>40</v>
+      </c>
+      <c r="H525" s="3">
+        <v>6212</v>
+      </c>
+      <c r="I525" s="3">
+        <v>32560</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>50</v>
+      </c>
+      <c r="B526" t="s">
+        <v>60</v>
+      </c>
+      <c r="C526" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E526" s="3">
+        <v>106</v>
+      </c>
+      <c r="F526" s="3">
+        <v>3</v>
+      </c>
+      <c r="G526" s="3">
+        <v>45</v>
+      </c>
+      <c r="H526" s="3">
+        <v>6926</v>
+      </c>
+      <c r="I526" s="3">
+        <v>41609</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>50</v>
+      </c>
+      <c r="B527" t="s">
+        <v>60</v>
+      </c>
+      <c r="C527" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_106</v>
+      </c>
+      <c r="E527" s="3">
+        <v>106</v>
+      </c>
+      <c r="F527" s="3">
+        <v>3</v>
+      </c>
+      <c r="G527" s="3">
+        <v>50</v>
+      </c>
+      <c r="H527" s="3">
+        <v>7428</v>
+      </c>
+      <c r="I527" s="3">
+        <v>49651</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>50</v>
+      </c>
+      <c r="B528" t="s">
+        <v>60</v>
+      </c>
+      <c r="C528" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E528" s="3">
+        <v>110</v>
+      </c>
+      <c r="F528" s="3">
+        <v>3</v>
+      </c>
+      <c r="G528" s="3">
+        <v>0</v>
+      </c>
+      <c r="H528" s="3">
+        <v>0</v>
+      </c>
+      <c r="I528" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>50</v>
+      </c>
+      <c r="B529" t="s">
+        <v>60</v>
+      </c>
+      <c r="C529" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E529" s="3">
+        <v>110</v>
+      </c>
+      <c r="F529" s="3">
+        <v>3</v>
+      </c>
+      <c r="G529" s="3">
+        <v>5</v>
+      </c>
+      <c r="H529" s="3">
+        <v>0</v>
+      </c>
+      <c r="I529" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>50</v>
+      </c>
+      <c r="B530" t="s">
+        <v>60</v>
+      </c>
+      <c r="C530" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E530" s="3">
+        <v>110</v>
+      </c>
+      <c r="F530" s="3">
+        <v>3</v>
+      </c>
+      <c r="G530" s="3">
+        <v>10</v>
+      </c>
+      <c r="H530" s="3">
+        <v>52</v>
+      </c>
+      <c r="I530" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>50</v>
+      </c>
+      <c r="B531" t="s">
+        <v>60</v>
+      </c>
+      <c r="C531" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E531" s="3">
+        <v>110</v>
+      </c>
+      <c r="F531" s="3">
+        <v>3</v>
+      </c>
+      <c r="G531" s="3">
+        <v>15</v>
+      </c>
+      <c r="H531" s="3">
+        <v>452</v>
+      </c>
+      <c r="I531" s="3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>50</v>
+      </c>
+      <c r="B532" t="s">
+        <v>60</v>
+      </c>
+      <c r="C532" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E532" s="3">
+        <v>110</v>
+      </c>
+      <c r="F532" s="3">
+        <v>3</v>
+      </c>
+      <c r="G532" s="3">
+        <v>20</v>
+      </c>
+      <c r="H532" s="3">
+        <v>1463</v>
+      </c>
+      <c r="I532" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>50</v>
+      </c>
+      <c r="B533" t="s">
+        <v>60</v>
+      </c>
+      <c r="C533" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E533" s="3">
+        <v>110</v>
+      </c>
+      <c r="F533" s="3">
+        <v>3</v>
+      </c>
+      <c r="G533" s="3">
+        <v>25</v>
+      </c>
+      <c r="H533" s="3">
+        <v>2914</v>
+      </c>
+      <c r="I533" s="3">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>50</v>
+      </c>
+      <c r="B534" t="s">
+        <v>60</v>
+      </c>
+      <c r="C534" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E534" s="3">
+        <v>110</v>
+      </c>
+      <c r="F534" s="3">
+        <v>3</v>
+      </c>
+      <c r="G534" s="3">
+        <v>30</v>
+      </c>
+      <c r="H534" s="3">
+        <v>4436</v>
+      </c>
+      <c r="I534" s="3">
+        <v>15722</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>50</v>
+      </c>
+      <c r="B535" t="s">
+        <v>60</v>
+      </c>
+      <c r="C535" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E535" s="3">
+        <v>110</v>
+      </c>
+      <c r="F535" s="3">
+        <v>3</v>
+      </c>
+      <c r="G535" s="3">
+        <v>35</v>
+      </c>
+      <c r="H535" s="3">
+        <v>5764</v>
+      </c>
+      <c r="I535" s="3">
+        <v>25084</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>50</v>
+      </c>
+      <c r="B536" t="s">
+        <v>60</v>
+      </c>
+      <c r="C536" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E536" s="3">
+        <v>110</v>
+      </c>
+      <c r="F536" s="3">
+        <v>3</v>
+      </c>
+      <c r="G536" s="3">
+        <v>40</v>
+      </c>
+      <c r="H536" s="3">
+        <v>6801</v>
+      </c>
+      <c r="I536" s="3">
+        <v>34802</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>50</v>
+      </c>
+      <c r="B537" t="s">
+        <v>60</v>
+      </c>
+      <c r="C537" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E537" s="3">
+        <v>110</v>
+      </c>
+      <c r="F537" s="3">
+        <v>3</v>
+      </c>
+      <c r="G537" s="3">
+        <v>45</v>
+      </c>
+      <c r="H537" s="3">
+        <v>7557</v>
+      </c>
+      <c r="I537" s="3">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>50</v>
+      </c>
+      <c r="B538" t="s">
+        <v>60</v>
+      </c>
+      <c r="C538" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_110</v>
+      </c>
+      <c r="E538" s="3">
+        <v>110</v>
+      </c>
+      <c r="F538" s="3">
+        <v>3</v>
+      </c>
+      <c r="G538" s="3">
+        <v>50</v>
+      </c>
+      <c r="H538" s="3">
+        <v>8084</v>
+      </c>
+      <c r="I538" s="3">
+        <v>51827</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>50</v>
+      </c>
+      <c r="B539" t="s">
+        <v>60</v>
+      </c>
+      <c r="C539" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E539" s="3">
+        <v>115</v>
+      </c>
+      <c r="F539" s="3">
+        <v>2</v>
+      </c>
+      <c r="G539" s="3">
+        <v>0</v>
+      </c>
+      <c r="H539" s="3">
+        <v>0</v>
+      </c>
+      <c r="I539" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>50</v>
+      </c>
+      <c r="B540" t="s">
+        <v>60</v>
+      </c>
+      <c r="C540" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E540" s="3">
+        <v>115</v>
+      </c>
+      <c r="F540" s="3">
+        <v>2</v>
+      </c>
+      <c r="G540" s="3">
+        <v>5</v>
+      </c>
+      <c r="H540" s="3">
+        <v>1</v>
+      </c>
+      <c r="I540" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>50</v>
+      </c>
+      <c r="B541" t="s">
+        <v>60</v>
+      </c>
+      <c r="C541" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E541" s="3">
+        <v>115</v>
+      </c>
+      <c r="F541" s="3">
+        <v>2</v>
+      </c>
+      <c r="G541" s="3">
+        <v>10</v>
+      </c>
+      <c r="H541" s="3">
+        <v>63</v>
+      </c>
+      <c r="I541" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>50</v>
+      </c>
+      <c r="B542" t="s">
+        <v>60</v>
+      </c>
+      <c r="C542" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E542" s="3">
+        <v>115</v>
+      </c>
+      <c r="F542" s="3">
+        <v>2</v>
+      </c>
+      <c r="G542" s="3">
+        <v>15</v>
+      </c>
+      <c r="H542" s="3">
+        <v>536</v>
+      </c>
+      <c r="I542" s="3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>50</v>
+      </c>
+      <c r="B543" t="s">
+        <v>60</v>
+      </c>
+      <c r="C543" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E543" s="3">
+        <v>115</v>
+      </c>
+      <c r="F543" s="3">
+        <v>2</v>
+      </c>
+      <c r="G543" s="3">
+        <v>20</v>
+      </c>
+      <c r="H543" s="3">
+        <v>1708</v>
+      </c>
+      <c r="I543" s="3">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>50</v>
+      </c>
+      <c r="B544" t="s">
+        <v>60</v>
+      </c>
+      <c r="C544" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E544" s="3">
+        <v>115</v>
+      </c>
+      <c r="F544" s="3">
+        <v>2</v>
+      </c>
+      <c r="G544" s="3">
+        <v>25</v>
+      </c>
+      <c r="H544" s="3">
+        <v>3357</v>
+      </c>
+      <c r="I544" s="3">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>50</v>
+      </c>
+      <c r="B545" t="s">
+        <v>60</v>
+      </c>
+      <c r="C545" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E545" s="3">
+        <v>115</v>
+      </c>
+      <c r="F545" s="3">
+        <v>2</v>
+      </c>
+      <c r="G545" s="3">
+        <v>30</v>
+      </c>
+      <c r="H545" s="3">
+        <v>5057</v>
+      </c>
+      <c r="I545" s="3">
+        <v>17810</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>50</v>
+      </c>
+      <c r="B546" t="s">
+        <v>60</v>
+      </c>
+      <c r="C546" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E546" s="3">
+        <v>115</v>
+      </c>
+      <c r="F546" s="3">
+        <v>2</v>
+      </c>
+      <c r="G546" s="3">
+        <v>35</v>
+      </c>
+      <c r="H546" s="3">
+        <v>6520</v>
+      </c>
+      <c r="I546" s="3">
+        <v>27743</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>50</v>
+      </c>
+      <c r="B547" t="s">
+        <v>60</v>
+      </c>
+      <c r="C547" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E547" s="3">
+        <v>115</v>
+      </c>
+      <c r="F547" s="3">
+        <v>2</v>
+      </c>
+      <c r="G547" s="3">
+        <v>40</v>
+      </c>
+      <c r="H547" s="3">
+        <v>7648</v>
+      </c>
+      <c r="I547" s="3">
+        <v>37733</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>50</v>
+      </c>
+      <c r="B548" t="s">
+        <v>60</v>
+      </c>
+      <c r="C548" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E548" s="3">
+        <v>115</v>
+      </c>
+      <c r="F548" s="3">
+        <v>2</v>
+      </c>
+      <c r="G548" s="3">
+        <v>45</v>
+      </c>
+      <c r="H548" s="3">
+        <v>8460</v>
+      </c>
+      <c r="I548" s="3">
+        <v>46823</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>50</v>
+      </c>
+      <c r="B549" t="s">
+        <v>60</v>
+      </c>
+      <c r="C549" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_115</v>
+      </c>
+      <c r="E549" s="3">
+        <v>115</v>
+      </c>
+      <c r="F549" s="3">
+        <v>2</v>
+      </c>
+      <c r="G549" s="3">
+        <v>50</v>
+      </c>
+      <c r="H549" s="3">
+        <v>9022</v>
+      </c>
+      <c r="I549" s="3">
+        <v>54545</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>50</v>
+      </c>
+      <c r="B550" t="s">
+        <v>60</v>
+      </c>
+      <c r="C550" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E550" s="3">
         <v>120</v>
       </c>
-      <c r="F517" s="3">
+      <c r="F550" s="3">
         <v>2</v>
       </c>
-      <c r="G517" s="7">
-        <v>38</v>
-      </c>
-      <c r="H517" s="7">
-        <v>9695</v>
-      </c>
-      <c r="I517" s="7">
-        <v>58013</v>
-      </c>
-      <c r="K517" s="7">
-        <v>303</v>
-      </c>
-      <c r="L517" s="7">
-        <v>257</v>
-      </c>
-      <c r="M517" s="7">
+      <c r="G550" s="3">
+        <v>0</v>
+      </c>
+      <c r="H550" s="3">
+        <v>0</v>
+      </c>
+      <c r="I550" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>50</v>
+      </c>
+      <c r="B551" t="s">
+        <v>60</v>
+      </c>
+      <c r="C551" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E551" s="3">
+        <v>120</v>
+      </c>
+      <c r="F551" s="3">
+        <v>2</v>
+      </c>
+      <c r="G551" s="3">
+        <v>5</v>
+      </c>
+      <c r="H551" s="3">
+        <v>1</v>
+      </c>
+      <c r="I551" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>50</v>
+      </c>
+      <c r="B552" t="s">
+        <v>60</v>
+      </c>
+      <c r="C552" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E552" s="3">
+        <v>120</v>
+      </c>
+      <c r="F552" s="3">
+        <v>2</v>
+      </c>
+      <c r="G552" s="3">
+        <v>10</v>
+      </c>
+      <c r="H552" s="3">
+        <v>76</v>
+      </c>
+      <c r="I552" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>50</v>
+      </c>
+      <c r="B553" t="s">
+        <v>60</v>
+      </c>
+      <c r="C553" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E553" s="3">
+        <v>120</v>
+      </c>
+      <c r="F553" s="3">
+        <v>2</v>
+      </c>
+      <c r="G553" s="3">
         <v>15</v>
+      </c>
+      <c r="H553" s="3">
+        <v>633</v>
+      </c>
+      <c r="I553" s="3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>50</v>
+      </c>
+      <c r="B554" t="s">
+        <v>60</v>
+      </c>
+      <c r="C554" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E554" s="3">
+        <v>120</v>
+      </c>
+      <c r="F554" s="3">
+        <v>2</v>
+      </c>
+      <c r="G554" s="3">
+        <v>20</v>
+      </c>
+      <c r="H554" s="3">
+        <v>1983</v>
+      </c>
+      <c r="I554" s="3">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>50</v>
+      </c>
+      <c r="B555" t="s">
+        <v>60</v>
+      </c>
+      <c r="C555" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E555" s="3">
+        <v>120</v>
+      </c>
+      <c r="F555" s="3">
+        <v>2</v>
+      </c>
+      <c r="G555" s="3">
+        <v>25</v>
+      </c>
+      <c r="H555" s="3">
+        <v>3847</v>
+      </c>
+      <c r="I555" s="3">
+        <v>10718</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>50</v>
+      </c>
+      <c r="B556" t="s">
+        <v>60</v>
+      </c>
+      <c r="C556" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E556" s="3">
+        <v>120</v>
+      </c>
+      <c r="F556" s="3">
+        <v>2</v>
+      </c>
+      <c r="G556" s="3">
+        <v>30</v>
+      </c>
+      <c r="H556" s="3">
+        <v>5738</v>
+      </c>
+      <c r="I556" s="3">
+        <v>19969</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>50</v>
+      </c>
+      <c r="B557" t="s">
+        <v>60</v>
+      </c>
+      <c r="C557" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E557" s="3">
+        <v>120</v>
+      </c>
+      <c r="F557" s="3">
+        <v>2</v>
+      </c>
+      <c r="G557" s="3">
+        <v>35</v>
+      </c>
+      <c r="H557" s="3">
+        <v>7341</v>
+      </c>
+      <c r="I557" s="3">
+        <v>30403</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>50</v>
+      </c>
+      <c r="B558" t="s">
+        <v>60</v>
+      </c>
+      <c r="C558" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E558" s="3">
+        <v>120</v>
+      </c>
+      <c r="F558" s="3">
+        <v>2</v>
+      </c>
+      <c r="G558" s="3">
+        <v>40</v>
+      </c>
+      <c r="H558" s="3">
+        <v>8562</v>
+      </c>
+      <c r="I558" s="3">
+        <v>40579</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>50</v>
+      </c>
+      <c r="B559" t="s">
+        <v>60</v>
+      </c>
+      <c r="C559" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E559" s="3">
+        <v>120</v>
+      </c>
+      <c r="F559" s="3">
+        <v>2</v>
+      </c>
+      <c r="G559" s="3">
+        <v>45</v>
+      </c>
+      <c r="H559" s="3">
+        <v>9432</v>
+      </c>
+      <c r="I559" s="3">
+        <v>49588</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>50</v>
+      </c>
+      <c r="B560" t="s">
+        <v>60</v>
+      </c>
+      <c r="C560" t="str">
+        <f t="shared" si="18"/>
+        <v>SMC_2016_i+ii+iii_SI50_120</v>
+      </c>
+      <c r="E560" s="3">
+        <v>120</v>
+      </c>
+      <c r="F560" s="3">
+        <v>2</v>
+      </c>
+      <c r="G560" s="3">
+        <v>50</v>
+      </c>
+      <c r="H560" s="3">
+        <v>10028</v>
+      </c>
+      <c r="I560" s="3">
+        <v>57056</v>
       </c>
     </row>
   </sheetData>
